--- a/academic/Eaton et al. 2021 Plagued by a cryptic clock.xlsx
+++ b/academic/Eaton et al. 2021 Plagued by a cryptic clock.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktmea\Projects\obsidian-public\academic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{27BC5A64-4480-492E-ADE5-2B69281AD18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96376A0A-4DBF-4FE1-8759-C00925D841E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table SI 1" sheetId="1" r:id="rId1"/>
     <sheet name="Table SI 2" sheetId="2" r:id="rId2"/>
     <sheet name="Table SI 3" sheetId="3" r:id="rId3"/>
     <sheet name="Table SI 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Table SI 5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="166">
   <si>
     <t xml:space="preserve">   1.ORI    </t>
   </si>
@@ -568,17 +580,104 @@
     <t>(3) Years / Substitution</t>
   </si>
   <si>
-    <t xml:space="preserve">Table SI 4. Bayesian parameter estimates by population from the maximum clade credibility (MCC) trees. 
+    <t xml:space="preserve">Table SI 4. Bayesian estimates of the substitution rates by population from the maximum clade credibility (MCC) trees. 
 Rates are described in units of (1) substitutions per site per year, (2) substitutions per year, and (3) years per substitution based on 4,229,098 genomic sites.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table SI 5. Bayesian estimates of the time to most recent common ancestor (tMRCA) by population from the maximum clade credibility (MCC) trees. </t>
+  </si>
+  <si>
+    <t>1802, 1911</t>
+  </si>
+  <si>
+    <t>1606, 1919</t>
+  </si>
+  <si>
+    <t>1648, 1931</t>
+  </si>
+  <si>
+    <t>662, 1944</t>
+  </si>
+  <si>
+    <t>1645, 1855</t>
+  </si>
+  <si>
+    <t>1323, 1889</t>
+  </si>
+  <si>
+    <t>1208, 1322</t>
+  </si>
+  <si>
+    <t>902, 1329</t>
+  </si>
+  <si>
+    <t>1443, 1874</t>
+  </si>
+  <si>
+    <t>307, 1905</t>
+  </si>
+  <si>
+    <t>1475, 1883</t>
+  </si>
+  <si>
+    <t>317, 1922</t>
+  </si>
+  <si>
+    <t>1847, 1975</t>
+  </si>
+  <si>
+    <t>1516, 1977</t>
+  </si>
+  <si>
+    <t>1769, 1960</t>
+  </si>
+  <si>
+    <t>1145, 1961</t>
+  </si>
+  <si>
+    <t>39, 237</t>
+  </si>
+  <si>
+    <t>-373, 237</t>
+  </si>
+  <si>
+    <t>1349, 1851</t>
+  </si>
+  <si>
+    <t>464, 1941</t>
+  </si>
+  <si>
+    <t>1561, 1906</t>
+  </si>
+  <si>
+    <t>531, 1951</t>
+  </si>
+  <si>
+    <t>-3000, -2777</t>
+  </si>
+  <si>
+    <t>-3408, -2777</t>
+  </si>
+  <si>
+    <t>95% HPD</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>First Pandemic Clade</t>
+  </si>
+  <si>
+    <t>272, 465</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -975,7 +1074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1336,6 +1435,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1381,7 +1502,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1432,15 +1553,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1450,16 +1562,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1478,19 +1590,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,10 +1655,67 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,40 +1727,55 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1957,11 +2132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,17 +2153,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -2041,7 +2216,7 @@
       <c r="G3" s="14">
         <v>2016</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="29">
         <f>G3-F3</f>
         <v>92</v>
       </c>
@@ -2072,7 +2247,7 @@
         <v>2008</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H14" si="0">G4-F4</f>
+        <f t="shared" ref="H4:H13" si="0">G4-F4</f>
         <v>54</v>
       </c>
       <c r="I4" s="14" t="s">
@@ -2399,11 +2574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2420,16 +2595,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -2467,20 +2642,20 @@
       <c r="C3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="23">
         <f>H3-G3</f>
         <v>35.669999999925494</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>-5899691.1145000001</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>-5899661.4930999996</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>-5899601.4133000001</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <v>-5899565.7433000002</v>
       </c>
     </row>
@@ -2494,20 +2669,20 @@
       <c r="C4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <f t="shared" ref="D4:D14" si="0">H4-G4</f>
         <v>-10.331400000490248</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>-5891399.1682000002</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <v>-5891402.6964999996</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>-5891344.1825999999</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="19">
         <v>-5891354.5140000004</v>
       </c>
     </row>
@@ -2521,20 +2696,20 @@
       <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <f t="shared" si="0"/>
         <v>12.690900000743568</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>-5882596.1550000003</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="19">
         <v>-5882586.8744000001</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <v>-5882594.5546000004</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <v>-5882581.8636999996</v>
       </c>
     </row>
@@ -2548,20 +2723,20 @@
       <c r="C6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <f t="shared" si="0"/>
         <v>44.081500000320375</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>-5888139.9846999999</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>-5888129.8859000001</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="19">
         <v>-5888082.1341000004</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <v>-5888038.0526000001</v>
       </c>
     </row>
@@ -2575,20 +2750,20 @@
       <c r="C7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>3.9017000002786517</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>-5920837.3496000003</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>-5920732.7741</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="19">
         <v>-5919662.0376000004</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="19">
         <v>-5919658.1359000001</v>
       </c>
     </row>
@@ -2602,20 +2777,20 @@
       <c r="C8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
         <v>-13.384899999946356</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>-5892876.2267000005</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>-5892894.9243999999</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>-5892791.2691000002</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>-5892804.6540000001</v>
       </c>
     </row>
@@ -2629,20 +2804,20 @@
       <c r="C9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <f t="shared" si="0"/>
         <v>3.6091000000014901</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>-5886031.4231000002</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>-5886034.1161000002</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <v>-5886025.5778000001</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="19">
         <v>-5886021.9687000001</v>
       </c>
     </row>
@@ -2656,20 +2831,20 @@
       <c r="C10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <f t="shared" si="0"/>
         <v>-11.17200000025332</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="19">
         <v>-5887496.5444</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="19">
         <v>-5887506.0362999998</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="19">
         <v>-5887494.6684999997</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="19">
         <v>-5887505.8404999999</v>
       </c>
     </row>
@@ -2683,20 +2858,20 @@
       <c r="C11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <f t="shared" si="0"/>
         <v>5.9207999994978309</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>-5889525.7034</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
         <v>-5889520.4452999998</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <v>-5889501.7253999999</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <v>-5889495.8046000004</v>
       </c>
     </row>
@@ -2710,20 +2885,20 @@
       <c r="C12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <f t="shared" si="0"/>
         <v>13297.716300000437</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>-5896014.0886000004</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <v>-5896016.4718000004</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <v>-5895879.7017000001</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="19">
         <v>-5882581.9853999997</v>
       </c>
     </row>
@@ -2737,20 +2912,20 @@
       <c r="C13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <f t="shared" si="0"/>
         <v>12.378299999982119</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>-5945602.8430000003</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="19">
         <v>-5945574.0226999996</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <v>-5944626.6984000001</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="19">
         <v>-5944614.3201000001</v>
       </c>
     </row>
@@ -2764,20 +2939,20 @@
       <c r="C14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="24">
         <f t="shared" si="0"/>
         <v>-2.8141000000759959</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <v>-5892925.9007999999</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="20">
         <v>-5892842.8987999996</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="20">
         <v>-5892738.5632999996</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="20">
         <v>-5892741.3773999996</v>
       </c>
     </row>
@@ -2795,11 +2970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2820,55 +2995,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="36" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2892,26 +3067,26 @@
       <c r="F3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <v>1.2700000000000001E-7</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="27">
         <v>1.66E-7</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="59">
         <v>1.29</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>94</v>
       </c>
@@ -2931,22 +3106,22 @@
       <c r="F4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="31">
         <v>8.3200000000000004E-8</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="31">
         <v>1.6E-7</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="60">
         <v>1.89</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="60" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2970,22 +3145,22 @@
       <c r="F5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>5.84E-8</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="27">
         <v>-1.0499999999999999E-11</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="59">
         <v>9.4500000000000007E-5</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="59" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3009,22 +3184,22 @@
       <c r="F6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>4.6800000000000002E-8</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="27">
         <v>8.5899999999999995E-8</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="59">
         <v>1.82</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="59" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3048,26 +3223,26 @@
       <c r="F7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <v>2.41E-7</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="27">
         <v>6.8700000000000005E-7</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="59">
         <v>2.76</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>95</v>
       </c>
@@ -3087,22 +3262,22 @@
       <c r="F8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="31">
         <v>8.1800000000000005E-8</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="31">
         <v>2.3099999999999999E-7</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="60">
         <v>2.91</v>
       </c>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="60" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3126,26 +3301,26 @@
       <c r="F9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="27">
         <v>7.9899999999999994E-8</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="27">
         <v>1.6500000000000001E-7</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="59">
         <v>1.94</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>96</v>
       </c>
@@ -3165,22 +3340,22 @@
       <c r="F10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="31">
         <v>6.2499999999999997E-8</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="31">
         <v>1.1300000000000001E-7</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="60">
         <v>1.75</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="60" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3204,22 +3379,22 @@
       <c r="F11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="27">
         <v>3.6300000000000001E-8</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="27">
         <v>7.2499999999999994E-8</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="59">
         <v>2.06</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="59" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3243,22 +3418,22 @@
       <c r="F12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="27">
         <v>5.6500000000000003E-8</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="27">
         <v>1.03E-7</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="59">
         <v>1.82</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="59" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3282,22 +3457,22 @@
       <c r="F13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="27">
         <v>6.1600000000000001E-7</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="27">
         <v>1.3E-6</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="59">
         <v>2.09</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3321,68 +3496,68 @@
       <c r="F14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="28">
         <v>5.5600000000000002E-8</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="28">
         <v>7.2699999999999996E-8</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="61">
         <v>1.37</v>
       </c>
-      <c r="L14" s="71" t="s">
+      <c r="L14" s="61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="28"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="28"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" s="28"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="28"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="28"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" s="28"/>
+      <c r="D24" s="25"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="28"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="28"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="28"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="28"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="28"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="28"/>
+      <c r="D30" s="25"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="28"/>
+      <c r="D31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3393,11 +3568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3416,546 +3591,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="62" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="62" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="47">
         <v>1.4147471863961001E-7</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="26">
         <v>9.6581445392694502E-8</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="48">
         <v>1.3765773625331801E-7</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="41">
         <v>0.59831044964933899</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="34">
         <v>0.40845239754735302</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="34">
         <v>0.582168057073437</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="41">
         <f>1/E4</f>
         <v>1.6713731150543758</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="34">
         <f t="shared" ref="I4:I15" si="0">1/F4</f>
         <v>2.4482657122463509</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="40">
         <f t="shared" ref="J4:J15" si="1">1/G4</f>
         <v>1.7177170541218068</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-    </row>
-    <row r="5" spans="1:17" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:17" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="45">
         <v>8.9201527841334796E-8</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="37">
         <v>3.8752654371032101E-8</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="46">
         <v>1.92467409344193E-7</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="39">
         <v>0.37724200299073302</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="38">
         <v>0.16388877309522301</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="38">
         <v>0.81396353592270998</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="39">
         <f t="shared" ref="H5:H15" si="2">1/E5</f>
         <v>2.6508182865961643</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="38">
         <f t="shared" si="0"/>
         <v>6.1016992263343006</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="53">
         <f t="shared" si="1"/>
         <v>1.228556263108763</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="47">
         <v>5.5556110260483602E-8</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="26">
         <v>6.3226430608938998E-8</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="48">
         <v>2.4588570026093999E-8</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="41">
         <v>0.23495223479039001</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="34">
         <v>0.267390771235402</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="34">
         <v>0.10398747232021401</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="41">
         <f t="shared" si="2"/>
         <v>4.2561842448195426</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="34">
         <f t="shared" si="0"/>
         <v>3.7398448547038035</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="40">
         <f t="shared" si="1"/>
         <v>9.6165430093410507</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="47">
         <v>5.1097666695877699E-8</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="26">
         <v>2.4869890116410598E-8</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="48">
         <v>9.54590716687987E-8</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="41">
         <v>0.21609704002820301</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="34">
         <v>0.105177202551532</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="34">
         <v>0.40370576907637301</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="41">
         <f t="shared" si="2"/>
         <v>4.6275506590441458</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="34">
         <f t="shared" si="0"/>
         <v>9.5077638094628529</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="40">
         <f t="shared" si="1"/>
         <v>2.4770515474373123</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="47">
         <v>3.4498430728329802E-7</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="26">
         <v>7.1508311196126096E-8</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="48">
         <v>1.02371357339484E-6</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="41">
         <v>1.4589724439631799</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="34">
         <v>0.30241565586291402</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="34">
         <v>4.3293850258170004</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="41">
         <f t="shared" si="2"/>
         <v>0.68541390492858201</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="34">
         <f t="shared" si="0"/>
         <v>3.3067071119271128</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="40">
         <f t="shared" si="1"/>
         <v>0.23097968742368657</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-    </row>
-    <row r="9" spans="1:17" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:17" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="45">
         <v>1.00518867433374E-7</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="37">
         <v>2.8489205997588399E-8</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="46">
         <v>3.4707238585964698E-7</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="39">
         <v>0.42510414122474899</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="38">
         <v>0.120483644105989</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="38">
         <v>1.46780313289426</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="39">
         <f t="shared" si="2"/>
         <v>2.3523647573014546</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="38">
         <f t="shared" si="0"/>
         <v>8.2998817592228864</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="53">
         <f t="shared" si="1"/>
         <v>0.68129027496226202</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="47">
         <v>1.3086924358689199E-7</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>5.4597254056147403E-8</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="48">
         <v>2.6054325687008101E-7</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="41">
         <v>0.55345885631483804</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="34">
         <v>0.23089713793434499</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="34">
         <v>1.10186296654274</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="41">
         <f t="shared" si="2"/>
         <v>1.8068190410004834</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="34">
         <f t="shared" si="0"/>
         <v>4.3309328515122063</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="40">
         <f t="shared" si="1"/>
         <v>0.90755387045782088</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-    </row>
-    <row r="11" spans="1:17" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="1:17" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="45">
         <v>1.5357687690296499E-7</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="37">
         <v>7.0640914247487499E-8</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="46">
         <v>3.27304139477236E-7</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="39">
         <v>0.64949166295657701</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="38">
         <v>0.29874734916222101</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="38">
         <v>1.3842012816549001</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="39">
         <f t="shared" si="2"/>
         <v>1.5396656447410886</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>3.3473100357352323</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="53">
         <f t="shared" si="1"/>
         <v>0.72243828499019802</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="47">
         <v>6.8983168049580905E-8</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="26">
         <v>1.76975937853769E-8</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="48">
         <v>1.6970707422949101E-7</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="41">
         <v>0.29173657803214598</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="34">
         <v>7.4844858482549806E-2</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="34">
         <v>0.71770784820979205</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="41">
         <f t="shared" si="2"/>
         <v>3.4277498102751163</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="34">
         <f t="shared" si="0"/>
         <v>13.360971217991567</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="40">
         <f t="shared" si="1"/>
         <v>1.3933245992702195</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="47">
         <v>3.5823293194635201E-8</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="26">
         <v>1.6794127453283401E-8</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="48">
         <v>7.4219005764427901E-8</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="41">
         <v>0.15150021760284499</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="34">
         <v>7.1024010824425901E-2</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="34">
         <v>0.31387944884032998</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="41">
         <f t="shared" si="2"/>
         <v>6.6006505853442494</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="34">
         <f t="shared" si="0"/>
         <v>14.079745545095147</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="40">
         <f t="shared" si="1"/>
         <v>3.1859365233838504</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="47">
         <v>8.62945505677659E-7</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="26">
         <v>2.14105636253202E-7</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="48">
         <v>1.8478667328007201E-6</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="41">
         <v>3.6494811121703798</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="34">
         <v>0.90547371806714605</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="34">
         <v>7.8148095039540699</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="41">
         <f t="shared" si="2"/>
         <v>0.27401155651009546</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="34">
         <f t="shared" si="0"/>
         <v>1.1043942856062492</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="40">
         <f t="shared" si="1"/>
         <v>0.12796217226971798</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="49">
         <v>8.1161224199588901E-8</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="50">
         <v>6.2334496647792699E-8</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="51">
         <v>8.3152547401629197E-8</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="42">
         <v>0.34323877094003302</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="43">
         <v>0.26361869510418601</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="43">
         <v>0.35166027191113503</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="42">
         <f t="shared" si="2"/>
         <v>2.9134237873573707</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>3.7933576736838988</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="44">
         <f t="shared" si="1"/>
         <v>2.8436536051268857</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3968,4 +4143,296 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F63E50-22E0-4F4B-BE73-D5E646308EF9}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="62"/>
+      <c r="B2" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="82">
+        <v>1867</v>
+      </c>
+      <c r="C4" s="83">
+        <v>1875</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="84">
+        <v>1825</v>
+      </c>
+      <c r="C5" s="85">
+        <v>1849</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="82">
+        <v>1759</v>
+      </c>
+      <c r="C6" s="83">
+        <v>1767</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="82">
+        <v>1279</v>
+      </c>
+      <c r="C7" s="83">
+        <v>1287</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="82">
+        <v>1713</v>
+      </c>
+      <c r="C8" s="83">
+        <v>1750</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="84">
+        <v>1723</v>
+      </c>
+      <c r="C9" s="85">
+        <v>1756</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="82">
+        <v>1927</v>
+      </c>
+      <c r="C10" s="83">
+        <v>1938</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="84">
+        <v>1885</v>
+      </c>
+      <c r="C11" s="85">
+        <v>1902</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="82">
+        <v>173</v>
+      </c>
+      <c r="C12" s="83">
+        <v>195</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="82">
+        <v>386</v>
+      </c>
+      <c r="C13" s="83">
+        <v>399</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="94">
+        <v>40474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="82">
+        <v>1629</v>
+      </c>
+      <c r="C14" s="83">
+        <v>1658</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="82">
+        <v>1767</v>
+      </c>
+      <c r="C15" s="83">
+        <v>1790</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="86">
+        <v>-2852</v>
+      </c>
+      <c r="C16" s="87">
+        <v>-2829</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/academic/Eaton et al. 2021 Plagued by a cryptic clock.xlsx
+++ b/academic/Eaton et al. 2021 Plagued by a cryptic clock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktmea\Projects\obsidian-public\academic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96376A0A-4DBF-4FE1-8759-C00925D841E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCDC712-BBE2-4505-8E18-E7B29D5D6876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table SI 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Table SI 3" sheetId="3" r:id="rId3"/>
     <sheet name="Table SI 4" sheetId="4" r:id="rId4"/>
     <sheet name="Table SI 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Table SI 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="177">
   <si>
     <t xml:space="preserve">   1.ORI    </t>
   </si>
@@ -670,6 +671,62 @@
   </si>
   <si>
     <t>272, 465</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table SI 6. Geographic structure of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yersinia pestis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> populations.</t>
+    </r>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Non-Human Samples</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Same*</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>* Number of samples with a closest relative collected from the same location.</t>
+  </si>
+  <si>
+    <t>Distinct Locations</t>
+  </si>
+  <si>
+    <t>Total Samples</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1457,6 +1514,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1502,7 +1579,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1697,6 +1774,54 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1730,53 +1855,83 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2136,7 +2291,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2153,17 +2308,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
@@ -2595,16 +2750,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -2973,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2995,15 +3150,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
       <c r="J1" s="52"/>
@@ -3572,7 +3727,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3591,36 +3746,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="62"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="75" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
@@ -4150,7 +4305,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4163,12 +4318,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -4178,27 +4333,27 @@
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="62"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="70" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4206,16 +4361,16 @@
       <c r="A4" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="71">
         <v>1867</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="72">
         <v>1875</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4223,16 +4378,16 @@
       <c r="A5" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="73">
         <v>1825</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="74">
         <v>1849</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="79" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4240,16 +4395,16 @@
       <c r="A6" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="71">
         <v>1759</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="72">
         <v>1767</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="77" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4257,16 +4412,16 @@
       <c r="A7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="71">
         <v>1279</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="72">
         <v>1287</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="77" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4274,16 +4429,16 @@
       <c r="A8" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="71">
         <v>1713</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="72">
         <v>1750</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="77" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4291,16 +4446,16 @@
       <c r="A9" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="73">
         <v>1723</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="74">
         <v>1756</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="79" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4308,16 +4463,16 @@
       <c r="A10" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="71">
         <v>1927</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="72">
         <v>1938</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="77" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4325,16 +4480,16 @@
       <c r="A11" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="73">
         <v>1885</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="74">
         <v>1902</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="79" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4342,33 +4497,33 @@
       <c r="A12" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="71">
         <v>173</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="72">
         <v>195</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="77" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="71">
         <v>386</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="72">
         <v>399</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="83">
         <v>40474</v>
       </c>
     </row>
@@ -4376,16 +4531,16 @@
       <c r="A14" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="71">
         <v>1629</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="72">
         <v>1658</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="77" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4393,16 +4548,16 @@
       <c r="A15" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="71">
         <v>1767</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="72">
         <v>1790</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="77" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4410,22 +4565,22 @@
       <c r="A16" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="75">
         <v>-2852</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="76">
         <v>-2829</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="78" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4435,4 +4590,688 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922555F0-DD60-4A30-94C9-BFE9FAE6D9F6}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+    </row>
+    <row r="2" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104"/>
+    </row>
+    <row r="3" spans="1:15" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="O3" s="116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="106">
+        <v>117</v>
+      </c>
+      <c r="C4" s="107">
+        <v>74</v>
+      </c>
+      <c r="D4" s="105">
+        <v>117</v>
+      </c>
+      <c r="E4" s="106">
+        <v>5</v>
+      </c>
+      <c r="F4" s="114">
+        <v>104</v>
+      </c>
+      <c r="G4" s="107">
+        <v>89</v>
+      </c>
+      <c r="H4" s="105">
+        <v>117</v>
+      </c>
+      <c r="I4" s="106">
+        <v>14</v>
+      </c>
+      <c r="J4" s="114">
+        <v>99</v>
+      </c>
+      <c r="K4" s="107">
+        <v>85</v>
+      </c>
+      <c r="L4" s="105">
+        <v>112</v>
+      </c>
+      <c r="M4" s="106">
+        <v>26</v>
+      </c>
+      <c r="N4" s="114">
+        <v>67</v>
+      </c>
+      <c r="O4" s="107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="106">
+        <v>39</v>
+      </c>
+      <c r="C5" s="107">
+        <v>85</v>
+      </c>
+      <c r="D5" s="105">
+        <v>39</v>
+      </c>
+      <c r="E5" s="106">
+        <v>1</v>
+      </c>
+      <c r="F5" s="114">
+        <v>39</v>
+      </c>
+      <c r="G5" s="107">
+        <v>100</v>
+      </c>
+      <c r="H5" s="105">
+        <v>39</v>
+      </c>
+      <c r="I5" s="106">
+        <v>1</v>
+      </c>
+      <c r="J5" s="114">
+        <v>39</v>
+      </c>
+      <c r="K5" s="107">
+        <v>100</v>
+      </c>
+      <c r="L5" s="105">
+        <v>39</v>
+      </c>
+      <c r="M5" s="106">
+        <v>5</v>
+      </c>
+      <c r="N5" s="114">
+        <v>34</v>
+      </c>
+      <c r="O5" s="107">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="106">
+        <v>4</v>
+      </c>
+      <c r="C6" s="107">
+        <v>50</v>
+      </c>
+      <c r="D6" s="105">
+        <v>4</v>
+      </c>
+      <c r="E6" s="106">
+        <v>1</v>
+      </c>
+      <c r="F6" s="114">
+        <v>4</v>
+      </c>
+      <c r="G6" s="107">
+        <v>100</v>
+      </c>
+      <c r="H6" s="105">
+        <v>4</v>
+      </c>
+      <c r="I6" s="106">
+        <v>3</v>
+      </c>
+      <c r="J6" s="114">
+        <v>2</v>
+      </c>
+      <c r="K6" s="107">
+        <v>50</v>
+      </c>
+      <c r="L6" s="117">
+        <v>1</v>
+      </c>
+      <c r="M6" s="118">
+        <v>1</v>
+      </c>
+      <c r="N6" s="119">
+        <v>0</v>
+      </c>
+      <c r="O6" s="120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="106">
+        <v>40</v>
+      </c>
+      <c r="C7" s="107">
+        <v>0</v>
+      </c>
+      <c r="D7" s="105">
+        <v>40</v>
+      </c>
+      <c r="E7" s="106">
+        <v>1</v>
+      </c>
+      <c r="F7" s="114">
+        <v>40</v>
+      </c>
+      <c r="G7" s="107">
+        <v>100</v>
+      </c>
+      <c r="H7" s="105">
+        <v>40</v>
+      </c>
+      <c r="I7" s="106">
+        <v>11</v>
+      </c>
+      <c r="J7" s="114">
+        <v>22</v>
+      </c>
+      <c r="K7" s="107">
+        <v>55</v>
+      </c>
+      <c r="L7" s="105">
+        <v>40</v>
+      </c>
+      <c r="M7" s="106">
+        <v>17</v>
+      </c>
+      <c r="N7" s="114">
+        <v>22</v>
+      </c>
+      <c r="O7" s="107">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="106">
+        <v>116</v>
+      </c>
+      <c r="C8" s="107">
+        <v>85</v>
+      </c>
+      <c r="D8" s="105">
+        <v>116</v>
+      </c>
+      <c r="E8" s="106">
+        <v>2</v>
+      </c>
+      <c r="F8" s="114">
+        <v>88</v>
+      </c>
+      <c r="G8" s="107">
+        <v>76</v>
+      </c>
+      <c r="H8" s="105">
+        <v>116</v>
+      </c>
+      <c r="I8" s="106">
+        <v>9</v>
+      </c>
+      <c r="J8" s="114">
+        <v>70</v>
+      </c>
+      <c r="K8" s="107">
+        <v>60</v>
+      </c>
+      <c r="L8" s="105">
+        <v>110</v>
+      </c>
+      <c r="M8" s="106">
+        <v>38</v>
+      </c>
+      <c r="N8" s="114">
+        <v>37</v>
+      </c>
+      <c r="O8" s="107">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="106">
+        <v>54</v>
+      </c>
+      <c r="C9" s="107">
+        <v>69</v>
+      </c>
+      <c r="D9" s="105">
+        <v>54</v>
+      </c>
+      <c r="E9" s="106">
+        <v>2</v>
+      </c>
+      <c r="F9" s="114">
+        <v>52</v>
+      </c>
+      <c r="G9" s="107">
+        <v>96</v>
+      </c>
+      <c r="H9" s="105">
+        <v>54</v>
+      </c>
+      <c r="I9" s="106">
+        <v>4</v>
+      </c>
+      <c r="J9" s="114">
+        <v>49</v>
+      </c>
+      <c r="K9" s="107">
+        <v>91</v>
+      </c>
+      <c r="L9" s="105">
+        <v>54</v>
+      </c>
+      <c r="M9" s="106">
+        <v>10</v>
+      </c>
+      <c r="N9" s="114">
+        <v>47</v>
+      </c>
+      <c r="O9" s="107">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="106">
+        <v>11</v>
+      </c>
+      <c r="C10" s="107">
+        <v>91</v>
+      </c>
+      <c r="D10" s="105">
+        <v>11</v>
+      </c>
+      <c r="E10" s="106">
+        <v>2</v>
+      </c>
+      <c r="F10" s="114">
+        <v>9</v>
+      </c>
+      <c r="G10" s="107">
+        <v>82</v>
+      </c>
+      <c r="H10" s="105">
+        <v>11</v>
+      </c>
+      <c r="I10" s="106">
+        <v>2</v>
+      </c>
+      <c r="J10" s="114">
+        <v>9</v>
+      </c>
+      <c r="K10" s="107">
+        <v>82</v>
+      </c>
+      <c r="L10" s="105">
+        <v>11</v>
+      </c>
+      <c r="M10" s="106">
+        <v>3</v>
+      </c>
+      <c r="N10" s="114">
+        <v>9</v>
+      </c>
+      <c r="O10" s="107">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="106">
+        <v>11</v>
+      </c>
+      <c r="C11" s="107">
+        <v>91</v>
+      </c>
+      <c r="D11" s="105">
+        <v>11</v>
+      </c>
+      <c r="E11" s="106">
+        <v>1</v>
+      </c>
+      <c r="F11" s="114">
+        <v>11</v>
+      </c>
+      <c r="G11" s="107">
+        <v>100</v>
+      </c>
+      <c r="H11" s="105">
+        <v>11</v>
+      </c>
+      <c r="I11" s="106">
+        <v>2</v>
+      </c>
+      <c r="J11" s="114">
+        <v>11</v>
+      </c>
+      <c r="K11" s="107">
+        <v>100</v>
+      </c>
+      <c r="L11" s="105">
+        <v>11</v>
+      </c>
+      <c r="M11" s="106">
+        <v>7</v>
+      </c>
+      <c r="N11" s="114">
+        <v>5</v>
+      </c>
+      <c r="O11" s="107">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="106">
+        <v>12</v>
+      </c>
+      <c r="C12" s="107">
+        <v>0</v>
+      </c>
+      <c r="D12" s="105">
+        <v>12</v>
+      </c>
+      <c r="E12" s="106">
+        <v>2</v>
+      </c>
+      <c r="F12" s="114">
+        <v>11</v>
+      </c>
+      <c r="G12" s="107">
+        <v>92</v>
+      </c>
+      <c r="H12" s="105">
+        <v>12</v>
+      </c>
+      <c r="I12" s="106">
+        <v>5</v>
+      </c>
+      <c r="J12" s="114">
+        <v>10</v>
+      </c>
+      <c r="K12" s="107">
+        <v>83</v>
+      </c>
+      <c r="L12" s="105">
+        <v>12</v>
+      </c>
+      <c r="M12" s="106">
+        <v>5</v>
+      </c>
+      <c r="N12" s="114">
+        <v>10</v>
+      </c>
+      <c r="O12" s="107">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="106">
+        <v>103</v>
+      </c>
+      <c r="C13" s="107">
+        <v>100</v>
+      </c>
+      <c r="D13" s="105">
+        <v>103</v>
+      </c>
+      <c r="E13" s="106">
+        <v>1</v>
+      </c>
+      <c r="F13" s="114">
+        <v>103</v>
+      </c>
+      <c r="G13" s="107">
+        <v>100</v>
+      </c>
+      <c r="H13" s="105">
+        <v>103</v>
+      </c>
+      <c r="I13" s="106">
+        <v>2</v>
+      </c>
+      <c r="J13" s="114">
+        <v>100</v>
+      </c>
+      <c r="K13" s="107">
+        <v>97</v>
+      </c>
+      <c r="L13" s="105">
+        <v>99</v>
+      </c>
+      <c r="M13" s="106">
+        <v>4</v>
+      </c>
+      <c r="N13" s="114">
+        <v>95</v>
+      </c>
+      <c r="O13" s="107">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="106">
+        <v>86</v>
+      </c>
+      <c r="C14" s="107">
+        <v>93</v>
+      </c>
+      <c r="D14" s="105">
+        <v>86</v>
+      </c>
+      <c r="E14" s="106">
+        <v>2</v>
+      </c>
+      <c r="F14" s="114">
+        <v>85</v>
+      </c>
+      <c r="G14" s="107">
+        <v>99</v>
+      </c>
+      <c r="H14" s="105">
+        <v>86</v>
+      </c>
+      <c r="I14" s="106">
+        <v>8</v>
+      </c>
+      <c r="J14" s="114">
+        <v>77</v>
+      </c>
+      <c r="K14" s="107">
+        <v>90</v>
+      </c>
+      <c r="L14" s="105">
+        <v>84</v>
+      </c>
+      <c r="M14" s="106">
+        <v>20</v>
+      </c>
+      <c r="N14" s="114">
+        <v>63</v>
+      </c>
+      <c r="O14" s="107">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="100">
+        <v>8</v>
+      </c>
+      <c r="C15" s="101">
+        <v>0</v>
+      </c>
+      <c r="D15" s="99">
+        <v>8</v>
+      </c>
+      <c r="E15" s="100">
+        <v>1</v>
+      </c>
+      <c r="F15" s="115">
+        <v>8</v>
+      </c>
+      <c r="G15" s="101">
+        <v>100</v>
+      </c>
+      <c r="H15" s="99">
+        <v>8</v>
+      </c>
+      <c r="I15" s="100">
+        <v>4</v>
+      </c>
+      <c r="J15" s="115">
+        <v>3</v>
+      </c>
+      <c r="K15" s="101">
+        <v>38</v>
+      </c>
+      <c r="L15" s="99">
+        <v>8</v>
+      </c>
+      <c r="M15" s="100">
+        <v>6</v>
+      </c>
+      <c r="N15" s="115">
+        <v>3</v>
+      </c>
+      <c r="O15" s="101">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/academic/Eaton et al. 2021 Plagued by a cryptic clock.xlsx
+++ b/academic/Eaton et al. 2021 Plagued by a cryptic clock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktmea\Projects\obsidian-public\academic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCDC712-BBE2-4505-8E18-E7B29D5D6876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E855D0DA-867D-4D79-8AA5-BD26F7EBB45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Table SI 4" sheetId="4" r:id="rId4"/>
     <sheet name="Table SI 5" sheetId="5" r:id="rId5"/>
     <sheet name="Table SI 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Table SI 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="199">
   <si>
     <t xml:space="preserve">   1.ORI    </t>
   </si>
@@ -95,39 +96,18 @@
     <t>Antiqua</t>
   </si>
   <si>
-    <t>Pre</t>
-  </si>
-  <si>
     <t>Medievalis</t>
   </si>
   <si>
     <t>Pestoides</t>
   </si>
   <si>
-    <t xml:space="preserve">1270**       </t>
-  </si>
-  <si>
-    <t>1800**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2876**       </t>
-  </si>
-  <si>
     <t>1.ORI</t>
   </si>
   <si>
     <t>1.ORI, 1.IN, 1.ANT</t>
   </si>
   <si>
-    <t>880**</t>
-  </si>
-  <si>
-    <t>-1626**</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descendants </t>
   </si>
   <si>
@@ -159,35 +139,6 @@
   </si>
   <si>
     <t>--</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pre </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is not a metabolic biovar and refers to "extinct" populations where metabolic status is unknown.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">** The sampling dates of ancient genomes include the 2-sigma range of radiocarbon estimates. </t>
   </si>
   <si>
     <t>Table SI 2. Model selection and log marginal likelihoods obtained from a Bayesian evaluation of temporal signal (BETS) test.</t>
@@ -357,23 +308,6 @@
     <t>States</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Burnin
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(States)</t>
-    </r>
-  </si>
-  <si>
     <t>tMRCA 
 95% HPD</t>
   </si>
@@ -393,22 +327,6 @@
     <t>* No temporal signal from the BETS test.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sampling Time Frame
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Years)</t>
-    </r>
-  </si>
-  <si>
     <t>1.29e-07, 2.49e-07</t>
   </si>
   <si>
@@ -443,78 +361,6 @@
   </si>
   <si>
     <t>4.75e-08, 1.66e-07</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mean Substitution Rate
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Substitutions / Site / Year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mean Substitution Rate 
-95% HPD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Substitutions / Site / Year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Substitution Rate
-Standard Deviation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Substitutions / Site / Year)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Substitution Rate 
-Standard Deviation
-95% HPD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Substitutions / Site / Year)</t>
-    </r>
   </si>
   <si>
     <t>Coefficient of Variation</t>
@@ -558,9 +404,6 @@
   </si>
   <si>
     <t>9.77, 3.07</t>
-  </si>
-  <si>
-    <t>Table SI 3. Bayesian parameter estimates by population from the Markov chain Monte Carlo (MCMC) analysis. The 95% highest posterior density (HPD) interval indicates the uncertainty surrounding each estimate.</t>
   </si>
   <si>
     <t>Mean</t>
@@ -728,6 +571,278 @@
   <si>
     <t>Total Samples</t>
   </si>
+  <si>
+    <t>MRCA</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Yunnan, China</t>
+  </si>
+  <si>
+    <t>Qinghai, China</t>
+  </si>
+  <si>
+    <t>Nairobi, Kenya</t>
+  </si>
+  <si>
+    <t>Xinjiang, China</t>
+  </si>
+  <si>
+    <t>Inner Mongolia, China</t>
+  </si>
+  <si>
+    <t>Tuva Republic, Russia</t>
+  </si>
+  <si>
+    <t>Issyk-Kul Region, Kyrgzstan</t>
+  </si>
+  <si>
+    <t>Krasnoyarsk Krai, Russia</t>
+  </si>
+  <si>
+    <t>Diverged From</t>
+  </si>
+  <si>
+    <t>Table SI 7. Ancestral location estimation.</t>
+  </si>
+  <si>
+    <r>
+      <t>1270</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>†</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1800</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>†</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>214</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>†</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>880</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>†</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-2876</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>†</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-1626</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>†</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">† The sampling dates of ancient genomes include the 2-sigma range of radiocarbon estimates. </t>
+  </si>
+  <si>
+    <t>Sampling Time Frame
+(Years)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is not a metabolic biovar and refers to "extinct" populations where metabolic status is unknown.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pre*</t>
+  </si>
+  <si>
+    <t>Burnin
+(States)</t>
+  </si>
+  <si>
+    <t>Mean Substitution Rate
+(Substitutions / Site / Year)</t>
+  </si>
+  <si>
+    <t>Mean Substitution Rate 
+95% HPD
+(Substitutions / Site / Year)</t>
+  </si>
+  <si>
+    <t>Substitution Rate
+Standard Deviation
+(Substitutions / Site / Year)</t>
+  </si>
+  <si>
+    <t>Substitution Rate 
+Standard Deviation
+95% HPD
+(Substitutions / Site / Year)</t>
+  </si>
+  <si>
+    <t>Table SI 3. Bayesian parameter estimates by population from the Markov chain Monte Carlo (MCMC) analysis. 
+The 95% highest posterior density (HPD) interval indicates the uncertainty surrounding each estimate.</t>
+  </si>
+  <si>
+    <t>0.PRE*</t>
+  </si>
+  <si>
+    <t>* 0.PRE is the most basal population and we could not estimate the divergence location.</t>
+  </si>
+  <si>
+    <t>Tatarstan, Russia</t>
+  </si>
 </sst>
 </file>
 
@@ -736,7 +851,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,14 +987,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -890,13 +997,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -923,22 +1023,27 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1130,8 +1235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1534,6 +1645,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1579,7 +1710,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1590,278 +1721,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1876,15 +1765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,17 +1801,285 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1980,6 +2128,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC9C9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2288,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2308,416 +2461,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
+      <c r="A1" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="40">
         <v>1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="40">
         <v>117</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="40">
         <v>1924</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="40">
         <v>2016</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="47">
         <f>G3-F3</f>
         <v>92</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>40</v>
+      <c r="I3" s="41" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="6">
         <v>39</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="6">
         <v>1954</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="6">
         <v>2008</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="48">
         <f t="shared" ref="H4:H13" si="0">G4-F4</f>
         <v>54</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>26</v>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="6">
         <v>1954</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="6">
         <v>2004</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="48">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="48">
         <f>1800-1270</f>
         <v>530</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>27</v>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="6">
         <v>116</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="6">
         <v>1912</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="6">
         <v>2018</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="48">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>40</v>
+      <c r="I7" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="6">
         <v>54</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="6">
         <v>1924</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="6">
         <v>2008</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="48">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>40</v>
+      <c r="I8" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="6">
         <v>11</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="6">
         <v>1977</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="6">
         <v>2015</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="48">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>40</v>
+      <c r="I9" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="6">
         <v>11</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="6">
         <v>1961</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="6">
         <v>2017</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="48">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>40</v>
+      <c r="I10" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="6">
         <v>12</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="48">
         <f>880-214</f>
         <v>666</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="I11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="6">
         <v>103</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="6">
         <v>1947</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="6">
         <v>2019</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="48">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="I12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="6">
         <v>85</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="7">
         <v>1958</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="6">
         <v>2014</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="48">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="8">
         <v>8</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="F14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="49">
         <f>2876-1626</f>
         <v>1250</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
+      <c r="I14" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="7:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2733,388 +2905,395 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="13.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
+      <c r="A1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>62</v>
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="42">
         <v>117</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="53">
         <f>H3-G3</f>
         <v>35.669999999925494</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="55">
         <v>-5899691.1145000001</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="55">
         <v>-5899661.4930999996</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="55">
         <v>-5899601.4133000001</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="55">
         <v>-5899565.7433000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="42">
         <v>39</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="C4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="54">
         <f t="shared" ref="D4:D14" si="0">H4-G4</f>
         <v>-10.331400000490248</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="56">
         <v>-5891399.1682000002</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="56">
         <v>-5891402.6964999996</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="56">
         <v>-5891344.1825999999</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="56">
         <v>-5891354.5140000004</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="42">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="C5" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="54">
         <f t="shared" si="0"/>
         <v>12.690900000743568</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="56">
         <v>-5882596.1550000003</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="56">
         <v>-5882586.8744000001</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="56">
         <v>-5882594.5546000004</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="56">
         <v>-5882581.8636999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="42">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="54">
         <f t="shared" si="0"/>
         <v>44.081500000320375</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="56">
         <v>-5888139.9846999999</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="56">
         <v>-5888129.8859000001</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="56">
         <v>-5888082.1341000004</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="56">
         <v>-5888038.0526000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="42">
         <v>116</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="C7" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="54">
         <f t="shared" si="0"/>
         <v>3.9017000002786517</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="56">
         <v>-5920837.3496000003</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="56">
         <v>-5920732.7741</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="56">
         <v>-5919662.0376000004</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="56">
         <v>-5919658.1359000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="42">
         <v>54</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="54">
         <f t="shared" si="0"/>
         <v>-13.384899999946356</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="56">
         <v>-5892876.2267000005</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="56">
         <v>-5892894.9243999999</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="56">
         <v>-5892791.2691000002</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="56">
         <v>-5892804.6540000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="42">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="54">
         <f t="shared" si="0"/>
         <v>3.6091000000014901</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="56">
         <v>-5886031.4231000002</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="56">
         <v>-5886034.1161000002</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="56">
         <v>-5886025.5778000001</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="56">
         <v>-5886021.9687000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="42">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="C10" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="54">
         <f t="shared" si="0"/>
         <v>-11.17200000025332</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="56">
         <v>-5887496.5444</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="56">
         <v>-5887506.0362999998</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="56">
         <v>-5887494.6684999997</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="56">
         <v>-5887505.8404999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="42">
         <v>12</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="C11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="54">
         <f t="shared" si="0"/>
         <v>5.9207999994978309</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="56">
         <v>-5889525.7034</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="56">
         <v>-5889520.4452999998</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="56">
         <v>-5889501.7253999999</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="56">
         <v>-5889495.8046000004</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="42">
+        <v>103</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="9">
-        <v>103</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="D12" s="54">
         <f t="shared" si="0"/>
         <v>13297.716300000437</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="56">
         <v>-5896014.0886000004</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="56">
         <v>-5896016.4718000004</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="56">
         <v>-5895879.7017000001</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="56">
         <v>-5882581.9853999997</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="42">
         <v>85</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C13" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="54">
         <f t="shared" si="0"/>
         <v>12.378299999982119</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="56">
         <v>-5945602.8430000003</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="56">
         <v>-5945574.0226999996</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="56">
         <v>-5944626.6984000001</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="56">
         <v>-5944614.3201000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="43">
         <v>8</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="58">
         <f t="shared" si="0"/>
         <v>-2.8141000000759959</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="57">
         <v>-5892925.9007999999</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="57">
         <v>-5892842.8987999996</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="57">
         <v>-5892738.5632999996</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="57">
         <v>-5892741.3773999996</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A15" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3129,7 +3308,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3149,570 +3328,582 @@
     <col min="14" max="14" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="58"/>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>116</v>
+      <c r="A2" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="42">
         <v>143600000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="42">
         <f>C3*0.1</f>
         <v>14360000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="42">
         <v>1885</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="27">
+      <c r="F3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="64">
         <v>1.2700000000000001E-7</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="27">
+      <c r="H3" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="64">
         <v>1.66E-7</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="59">
+      <c r="J3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="65">
         <v>1.29</v>
       </c>
-      <c r="L3" s="59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="L3" s="65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="59" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="42">
         <v>1000000000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="42">
         <f t="shared" ref="D4:D14" si="0">C4*0.1</f>
         <v>100000000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="42">
         <v>1882</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="31">
+      <c r="F4" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="64">
         <v>8.3200000000000004E-8</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="31">
+      <c r="H4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="64">
         <v>1.6E-7</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="60">
+      <c r="J4" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="65">
         <v>1.89</v>
       </c>
-      <c r="L4" s="60" t="s">
-        <v>118</v>
+      <c r="L4" s="65" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="42">
         <v>1000000000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="42">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="42">
         <v>1780</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="F5" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="64">
         <v>5.84E-8</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="27">
+      <c r="H5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="64">
         <v>-1.0499999999999999E-11</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="59">
+      <c r="J5" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="65">
         <v>9.4500000000000007E-5</v>
       </c>
-      <c r="L5" s="59" t="s">
-        <v>119</v>
+      <c r="L5" s="65" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="A6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="42">
         <v>426000000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="42">
         <f t="shared" si="0"/>
         <v>42600000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="42">
         <v>1300</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="F6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="64">
         <v>4.6800000000000002E-8</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="27">
+      <c r="H6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="64">
         <v>8.5899999999999995E-8</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" s="59">
+      <c r="J6" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="65">
         <v>1.82</v>
       </c>
-      <c r="L6" s="59" t="s">
-        <v>120</v>
+      <c r="L6" s="65" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="42">
         <v>371100000</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="42">
         <f t="shared" si="0"/>
         <v>37110000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="42">
         <v>1796</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="27">
+      <c r="F7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="64">
         <v>2.41E-7</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="27">
+      <c r="H7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="64">
         <v>6.8700000000000005E-7</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="59">
+      <c r="J7" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="65">
         <v>2.76</v>
       </c>
-      <c r="L7" s="59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="L7" s="65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="59" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="42">
         <v>1000000000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="42">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="42">
         <v>1798</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="31">
+      <c r="F8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="64">
         <v>8.1800000000000005E-8</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="31">
+      <c r="H8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="64">
         <v>2.3099999999999999E-7</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="60">
+      <c r="J8" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="65">
         <v>2.91</v>
       </c>
-      <c r="L8" s="60" t="s">
-        <v>122</v>
+      <c r="L8" s="65" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="42">
         <v>1000000000</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="42">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="42">
         <v>1954</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="F9" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="64">
         <v>7.9899999999999994E-8</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="27">
+      <c r="H9" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="64">
         <v>1.6500000000000001E-7</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="59">
+      <c r="J9" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="65">
         <v>1.94</v>
       </c>
-      <c r="L9" s="59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="L9" s="65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="59" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="42">
         <v>1000000000</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="42">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="42">
         <v>1924</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="31">
+      <c r="F10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="64">
         <v>6.2499999999999997E-8</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="31">
+      <c r="H10" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="64">
         <v>1.1300000000000001E-7</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="60">
+      <c r="J10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="65">
         <v>1.75</v>
       </c>
-      <c r="L10" s="60" t="s">
-        <v>124</v>
+      <c r="L10" s="65" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="A11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="42">
         <v>1000000000</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="42">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="42">
         <v>223</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="27">
+      <c r="F11" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="64">
         <v>3.6300000000000001E-8</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="27">
+      <c r="H11" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="64">
         <v>7.2499999999999994E-8</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="59">
+      <c r="J11" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="65">
         <v>2.06</v>
       </c>
-      <c r="L11" s="59" t="s">
-        <v>125</v>
+      <c r="L11" s="65" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="C12" s="42">
         <v>1000000000</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="42">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="42">
         <v>1698</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="27">
+      <c r="F12" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="64">
         <v>5.6500000000000003E-8</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="27">
+      <c r="H12" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="64">
         <v>1.03E-7</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="59">
+      <c r="J12" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="65">
         <v>1.82</v>
       </c>
-      <c r="L12" s="59" t="s">
-        <v>126</v>
+      <c r="L12" s="65" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="A13" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="42">
         <v>443400000</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="42">
         <f t="shared" si="0"/>
         <v>44340000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="42">
         <v>1814</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="27">
+      <c r="F13" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="64">
         <v>6.1600000000000001E-7</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="27">
+      <c r="H13" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="64">
         <v>1.3E-6</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="59">
+      <c r="J13" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="65">
         <v>2.09</v>
       </c>
-      <c r="L13" s="59" t="s">
-        <v>127</v>
+      <c r="L13" s="65" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="A14" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="43">
         <v>5000000000</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="43">
         <f t="shared" si="0"/>
         <v>500000000</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="43">
         <v>-2816</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="F14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="66">
         <v>5.5600000000000002E-8</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="66">
+        <v>7.2699999999999996E-8</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="67">
+        <v>1.37</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="28">
-        <v>7.2699999999999996E-8</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="61">
-        <v>1.37</v>
-      </c>
-      <c r="L14" s="61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
-        <v>97</v>
-      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="25"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="25"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" s="25"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="25"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="25"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" s="25"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="25"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="25"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="25"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="25"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="25"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="25"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="25"/>
+      <c r="D31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3726,567 +3917,568 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" customWidth="1"/>
-    <col min="10" max="10" width="16.90625" customWidth="1"/>
-    <col min="11" max="14" width="27.90625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15" style="45" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="13" style="45" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" style="45" customWidth="1"/>
+    <col min="11" max="14" width="27.90625" style="45" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="94"/>
+      <c r="A1" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="47">
+      <c r="A3" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="78">
         <v>1.4147471863961001E-7</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="79">
         <v>9.6581445392694502E-8</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="80">
         <v>1.3765773625331801E-7</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="81">
         <v>0.59831044964933899</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="82">
         <v>0.40845239754735302</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="82">
         <v>0.582168057073437</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="81">
         <f>1/E4</f>
         <v>1.6713731150543758</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="82">
         <f t="shared" ref="I4:I15" si="0">1/F4</f>
         <v>2.4482657122463509</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="83">
         <f t="shared" ref="J4:J15" si="1">1/G4</f>
         <v>1.7177170541218068</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:17" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="45">
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="78">
         <v>8.9201527841334796E-8</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="79">
         <v>3.8752654371032101E-8</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="80">
         <v>1.92467409344193E-7</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="81">
         <v>0.37724200299073302</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="82">
         <v>0.16388877309522301</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="82">
         <v>0.81396353592270998</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="81">
         <f t="shared" ref="H5:H15" si="2">1/E5</f>
         <v>2.6508182865961643</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="82">
         <f t="shared" si="0"/>
         <v>6.1016992263343006</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="83">
         <f t="shared" si="1"/>
         <v>1.228556263108763</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="47">
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="78">
         <v>5.5556110260483602E-8</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="79">
         <v>6.3226430608938998E-8</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="80">
         <v>2.4588570026093999E-8</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="81">
         <v>0.23495223479039001</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="82">
         <v>0.267390771235402</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="82">
         <v>0.10398747232021401</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="81">
         <f t="shared" si="2"/>
         <v>4.2561842448195426</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="82">
         <f t="shared" si="0"/>
         <v>3.7398448547038035</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="83">
         <f t="shared" si="1"/>
         <v>9.6165430093410507</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="47">
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="78">
         <v>5.1097666695877699E-8</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="79">
         <v>2.4869890116410598E-8</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="80">
         <v>9.54590716687987E-8</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="81">
         <v>0.21609704002820301</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="82">
         <v>0.105177202551532</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="82">
         <v>0.40370576907637301</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="81">
         <f t="shared" si="2"/>
         <v>4.6275506590441458</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="82">
         <f t="shared" si="0"/>
         <v>9.5077638094628529</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="83">
         <f t="shared" si="1"/>
         <v>2.4770515474373123</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="47">
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="78">
         <v>3.4498430728329802E-7</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="79">
         <v>7.1508311196126096E-8</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="80">
         <v>1.02371357339484E-6</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="81">
         <v>1.4589724439631799</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="82">
         <v>0.30241565586291402</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="82">
         <v>4.3293850258170004</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="81">
         <f t="shared" si="2"/>
         <v>0.68541390492858201</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="82">
         <f t="shared" si="0"/>
         <v>3.3067071119271128</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="83">
         <f t="shared" si="1"/>
         <v>0.23097968742368657</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:17" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="45">
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="78">
         <v>1.00518867433374E-7</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="79">
         <v>2.8489205997588399E-8</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="80">
         <v>3.4707238585964698E-7</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="81">
         <v>0.42510414122474899</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="82">
         <v>0.120483644105989</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="82">
         <v>1.46780313289426</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="81">
         <f t="shared" si="2"/>
         <v>2.3523647573014546</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="82">
         <f t="shared" si="0"/>
         <v>8.2998817592228864</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="83">
         <f t="shared" si="1"/>
         <v>0.68129027496226202</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="47">
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="78">
         <v>1.3086924358689199E-7</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="79">
         <v>5.4597254056147403E-8</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="80">
         <v>2.6054325687008101E-7</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="81">
         <v>0.55345885631483804</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="82">
         <v>0.23089713793434499</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="82">
         <v>1.10186296654274</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="81">
         <f t="shared" si="2"/>
         <v>1.8068190410004834</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="82">
         <f t="shared" si="0"/>
         <v>4.3309328515122063</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="83">
         <f t="shared" si="1"/>
         <v>0.90755387045782088</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-    </row>
-    <row r="11" spans="1:17" s="35" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="45">
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="78">
         <v>1.5357687690296499E-7</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="79">
         <v>7.0640914247487499E-8</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="80">
         <v>3.27304139477236E-7</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="81">
         <v>0.64949166295657701</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="82">
         <v>0.29874734916222101</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="82">
         <v>1.3842012816549001</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="81">
         <f t="shared" si="2"/>
         <v>1.5396656447410886</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="82">
         <f t="shared" si="0"/>
         <v>3.3473100357352323</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="83">
         <f t="shared" si="1"/>
         <v>0.72243828499019802</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="47">
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="78">
         <v>6.8983168049580905E-8</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="79">
         <v>1.76975937853769E-8</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="80">
         <v>1.6970707422949101E-7</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="81">
         <v>0.29173657803214598</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="82">
         <v>7.4844858482549806E-2</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="82">
         <v>0.71770784820979205</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="81">
         <f t="shared" si="2"/>
         <v>3.4277498102751163</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="82">
         <f t="shared" si="0"/>
         <v>13.360971217991567</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="83">
         <f t="shared" si="1"/>
         <v>1.3933245992702195</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="47">
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="78">
         <v>3.5823293194635201E-8</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="79">
         <v>1.6794127453283401E-8</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="80">
         <v>7.4219005764427901E-8</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="81">
         <v>0.15150021760284499</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="82">
         <v>7.1024010824425901E-2</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="82">
         <v>0.31387944884032998</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="81">
         <f t="shared" si="2"/>
         <v>6.6006505853442494</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="82">
         <f t="shared" si="0"/>
         <v>14.079745545095147</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="83">
         <f t="shared" si="1"/>
         <v>3.1859365233838504</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="47">
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="78">
         <v>8.62945505677659E-7</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="79">
         <v>2.14105636253202E-7</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="80">
         <v>1.8478667328007201E-6</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="81">
         <v>3.6494811121703798</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="82">
         <v>0.90547371806714605</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="82">
         <v>7.8148095039540699</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="81">
         <f t="shared" si="2"/>
         <v>0.27401155651009546</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="82">
         <f t="shared" si="0"/>
         <v>1.1043942856062492</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="83">
         <f t="shared" si="1"/>
         <v>0.12796217226971798</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
     </row>
     <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="49">
+      <c r="A15" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="84">
         <v>8.1161224199588901E-8</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="85">
         <v>6.2334496647792699E-8</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="86">
         <v>8.3152547401629197E-8</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="87">
         <v>0.34323877094003302</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="88">
         <v>0.26361869510418601</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="88">
         <v>0.35166027191113503</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="87">
         <f t="shared" si="2"/>
         <v>2.9134237873573707</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="88">
         <f t="shared" si="0"/>
         <v>3.7933576736838988</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="89">
         <f t="shared" si="1"/>
         <v>2.8436536051268857</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
-        <v>97</v>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="63" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4302,10 +4494,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F63E50-22E0-4F4B-BE73-D5E646308EF9}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4317,275 +4509,298 @@
     <col min="5" max="5" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:12" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="95">
+        <v>1867</v>
+      </c>
+      <c r="C4" s="96">
+        <v>1875</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="98">
+        <v>1825</v>
+      </c>
+      <c r="C5" s="99">
+        <v>1849</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="95">
+        <v>1759</v>
+      </c>
+      <c r="C6" s="96">
+        <v>1767</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="95">
+        <v>1279</v>
+      </c>
+      <c r="C7" s="96">
+        <v>1287</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="95">
+        <v>1713</v>
+      </c>
+      <c r="C8" s="96">
+        <v>1750</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="98">
+        <v>1723</v>
+      </c>
+      <c r="C9" s="99">
+        <v>1756</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="95">
+        <v>1927</v>
+      </c>
+      <c r="C10" s="96">
+        <v>1938</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="98">
+        <v>1885</v>
+      </c>
+      <c r="C11" s="99">
+        <v>1902</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="71">
-        <v>1867</v>
-      </c>
-      <c r="C4" s="72">
-        <v>1875</v>
-      </c>
-      <c r="D4" s="72" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="95">
+        <v>173</v>
+      </c>
+      <c r="C12" s="96">
+        <v>195</v>
+      </c>
+      <c r="D12" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E12" s="97" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="73">
-        <v>1825</v>
-      </c>
-      <c r="C5" s="74">
-        <v>1849</v>
-      </c>
-      <c r="D5" s="74" t="s">
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="95">
+        <v>386</v>
+      </c>
+      <c r="C13" s="96">
+        <v>399</v>
+      </c>
+      <c r="D13" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="101">
+        <v>40474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="95">
+        <v>1629</v>
+      </c>
+      <c r="C14" s="96">
+        <v>1658</v>
+      </c>
+      <c r="D14" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E14" s="97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="s">
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="95">
+        <v>1767</v>
+      </c>
+      <c r="C15" s="96">
+        <v>1790</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="71">
-        <v>1759</v>
-      </c>
-      <c r="C6" s="72">
-        <v>1767</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="71">
-        <v>1279</v>
-      </c>
-      <c r="C7" s="72">
-        <v>1287</v>
-      </c>
-      <c r="D7" s="72" t="s">
+      <c r="B16" s="102">
+        <v>-2852</v>
+      </c>
+      <c r="C16" s="103">
+        <v>-2829</v>
+      </c>
+      <c r="D16" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E16" s="104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="71">
-        <v>1713</v>
-      </c>
-      <c r="C8" s="72">
-        <v>1750</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="73">
-        <v>1723</v>
-      </c>
-      <c r="C9" s="74">
-        <v>1756</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="71">
-        <v>1927</v>
-      </c>
-      <c r="C10" s="72">
-        <v>1938</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="73">
-        <v>1885</v>
-      </c>
-      <c r="C11" s="74">
-        <v>1902</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="71">
-        <v>173</v>
-      </c>
-      <c r="C12" s="72">
-        <v>195</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="71">
-        <v>386</v>
-      </c>
-      <c r="C13" s="72">
-        <v>399</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="83">
-        <v>40474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="71">
-        <v>1629</v>
-      </c>
-      <c r="C14" s="72">
-        <v>1658</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="77" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="71">
-        <v>1767</v>
-      </c>
-      <c r="C15" s="72">
-        <v>1790</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="75">
-        <v>-2852</v>
-      </c>
-      <c r="C16" s="76">
-        <v>-2829</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>161</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4594,684 +4809,1338 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922555F0-DD60-4A30-94C9-BFE9FAE6D9F6}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
+      <c r="A1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104"/>
-    </row>
-    <row r="3" spans="1:15" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="110" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21">
+        <v>117</v>
+      </c>
+      <c r="C4" s="22">
+        <v>74</v>
+      </c>
+      <c r="D4" s="20">
+        <v>117</v>
+      </c>
+      <c r="E4" s="21">
+        <v>5</v>
+      </c>
+      <c r="F4" s="29">
+        <v>104</v>
+      </c>
+      <c r="G4" s="22">
+        <v>89</v>
+      </c>
+      <c r="H4" s="20">
+        <v>117</v>
+      </c>
+      <c r="I4" s="21">
+        <v>14</v>
+      </c>
+      <c r="J4" s="29">
+        <v>99</v>
+      </c>
+      <c r="K4" s="22">
+        <v>85</v>
+      </c>
+      <c r="L4" s="20">
+        <v>112</v>
+      </c>
+      <c r="M4" s="21">
+        <v>26</v>
+      </c>
+      <c r="N4" s="29">
+        <v>67</v>
+      </c>
+      <c r="O4" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="21">
+        <v>39</v>
+      </c>
+      <c r="C5" s="22">
+        <v>85</v>
+      </c>
+      <c r="D5" s="20">
+        <v>39</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>39</v>
+      </c>
+      <c r="G5" s="22">
+        <v>100</v>
+      </c>
+      <c r="H5" s="20">
+        <v>39</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="29">
+        <v>39</v>
+      </c>
+      <c r="K5" s="22">
+        <v>100</v>
+      </c>
+      <c r="L5" s="20">
+        <v>39</v>
+      </c>
+      <c r="M5" s="21">
+        <v>5</v>
+      </c>
+      <c r="N5" s="29">
+        <v>34</v>
+      </c>
+      <c r="O5" s="22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="M3" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="N3" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="O3" s="116" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="105" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="106">
-        <v>117</v>
-      </c>
-      <c r="C4" s="107">
-        <v>74</v>
-      </c>
-      <c r="D4" s="105">
-        <v>117</v>
-      </c>
-      <c r="E4" s="106">
+      <c r="B6" s="21">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22">
+        <v>50</v>
+      </c>
+      <c r="D6" s="20">
+        <v>4</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>4</v>
+      </c>
+      <c r="G6" s="22">
+        <v>100</v>
+      </c>
+      <c r="H6" s="20">
+        <v>4</v>
+      </c>
+      <c r="I6" s="21">
+        <v>3</v>
+      </c>
+      <c r="J6" s="29">
+        <v>2</v>
+      </c>
+      <c r="K6" s="22">
+        <v>50</v>
+      </c>
+      <c r="L6" s="107">
+        <v>1</v>
+      </c>
+      <c r="M6" s="108">
+        <v>1</v>
+      </c>
+      <c r="N6" s="109">
+        <v>0</v>
+      </c>
+      <c r="O6" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="21">
+        <v>40</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>40</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>40</v>
+      </c>
+      <c r="G7" s="22">
+        <v>100</v>
+      </c>
+      <c r="H7" s="20">
+        <v>40</v>
+      </c>
+      <c r="I7" s="21">
+        <v>11</v>
+      </c>
+      <c r="J7" s="29">
+        <v>22</v>
+      </c>
+      <c r="K7" s="22">
+        <v>55</v>
+      </c>
+      <c r="L7" s="20">
+        <v>40</v>
+      </c>
+      <c r="M7" s="21">
+        <v>17</v>
+      </c>
+      <c r="N7" s="29">
+        <v>22</v>
+      </c>
+      <c r="O7" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="21">
+        <v>116</v>
+      </c>
+      <c r="C8" s="22">
+        <v>85</v>
+      </c>
+      <c r="D8" s="20">
+        <v>116</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="29">
+        <v>88</v>
+      </c>
+      <c r="G8" s="22">
+        <v>76</v>
+      </c>
+      <c r="H8" s="20">
+        <v>116</v>
+      </c>
+      <c r="I8" s="21">
+        <v>9</v>
+      </c>
+      <c r="J8" s="29">
+        <v>70</v>
+      </c>
+      <c r="K8" s="22">
+        <v>60</v>
+      </c>
+      <c r="L8" s="20">
+        <v>110</v>
+      </c>
+      <c r="M8" s="21">
+        <v>38</v>
+      </c>
+      <c r="N8" s="29">
+        <v>37</v>
+      </c>
+      <c r="O8" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="21">
+        <v>54</v>
+      </c>
+      <c r="C9" s="22">
+        <v>69</v>
+      </c>
+      <c r="D9" s="20">
+        <v>54</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="29">
+        <v>52</v>
+      </c>
+      <c r="G9" s="22">
+        <v>96</v>
+      </c>
+      <c r="H9" s="20">
+        <v>54</v>
+      </c>
+      <c r="I9" s="21">
+        <v>4</v>
+      </c>
+      <c r="J9" s="29">
+        <v>49</v>
+      </c>
+      <c r="K9" s="22">
+        <v>91</v>
+      </c>
+      <c r="L9" s="20">
+        <v>54</v>
+      </c>
+      <c r="M9" s="21">
+        <v>10</v>
+      </c>
+      <c r="N9" s="29">
+        <v>47</v>
+      </c>
+      <c r="O9" s="22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="21">
+        <v>11</v>
+      </c>
+      <c r="C10" s="22">
+        <v>91</v>
+      </c>
+      <c r="D10" s="20">
+        <v>11</v>
+      </c>
+      <c r="E10" s="21">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>9</v>
+      </c>
+      <c r="G10" s="22">
+        <v>82</v>
+      </c>
+      <c r="H10" s="20">
+        <v>11</v>
+      </c>
+      <c r="I10" s="21">
+        <v>2</v>
+      </c>
+      <c r="J10" s="29">
+        <v>9</v>
+      </c>
+      <c r="K10" s="22">
+        <v>82</v>
+      </c>
+      <c r="L10" s="20">
+        <v>11</v>
+      </c>
+      <c r="M10" s="21">
+        <v>3</v>
+      </c>
+      <c r="N10" s="29">
+        <v>9</v>
+      </c>
+      <c r="O10" s="22">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="21">
+        <v>11</v>
+      </c>
+      <c r="C11" s="22">
+        <v>91</v>
+      </c>
+      <c r="D11" s="20">
+        <v>11</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>11</v>
+      </c>
+      <c r="G11" s="22">
+        <v>100</v>
+      </c>
+      <c r="H11" s="20">
+        <v>11</v>
+      </c>
+      <c r="I11" s="21">
+        <v>2</v>
+      </c>
+      <c r="J11" s="29">
+        <v>11</v>
+      </c>
+      <c r="K11" s="22">
+        <v>100</v>
+      </c>
+      <c r="L11" s="20">
+        <v>11</v>
+      </c>
+      <c r="M11" s="21">
+        <v>7</v>
+      </c>
+      <c r="N11" s="29">
         <v>5</v>
       </c>
-      <c r="F4" s="114">
-        <v>104</v>
-      </c>
-      <c r="G4" s="107">
-        <v>89</v>
-      </c>
-      <c r="H4" s="105">
-        <v>117</v>
-      </c>
-      <c r="I4" s="106">
-        <v>14</v>
-      </c>
-      <c r="J4" s="114">
+      <c r="O11" s="22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21">
+        <v>12</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>12</v>
+      </c>
+      <c r="E12" s="21">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29">
+        <v>11</v>
+      </c>
+      <c r="G12" s="22">
+        <v>92</v>
+      </c>
+      <c r="H12" s="20">
+        <v>12</v>
+      </c>
+      <c r="I12" s="21">
+        <v>5</v>
+      </c>
+      <c r="J12" s="29">
+        <v>10</v>
+      </c>
+      <c r="K12" s="22">
+        <v>83</v>
+      </c>
+      <c r="L12" s="20">
+        <v>12</v>
+      </c>
+      <c r="M12" s="21">
+        <v>5</v>
+      </c>
+      <c r="N12" s="29">
+        <v>10</v>
+      </c>
+      <c r="O12" s="22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="21">
+        <v>103</v>
+      </c>
+      <c r="C13" s="22">
+        <v>100</v>
+      </c>
+      <c r="D13" s="20">
+        <v>103</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>103</v>
+      </c>
+      <c r="G13" s="22">
+        <v>100</v>
+      </c>
+      <c r="H13" s="20">
+        <v>103</v>
+      </c>
+      <c r="I13" s="21">
+        <v>2</v>
+      </c>
+      <c r="J13" s="29">
+        <v>100</v>
+      </c>
+      <c r="K13" s="22">
+        <v>97</v>
+      </c>
+      <c r="L13" s="20">
         <v>99</v>
       </c>
-      <c r="K4" s="107">
+      <c r="M13" s="21">
+        <v>4</v>
+      </c>
+      <c r="N13" s="29">
+        <v>95</v>
+      </c>
+      <c r="O13" s="22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="21">
+        <v>86</v>
+      </c>
+      <c r="C14" s="22">
+        <v>93</v>
+      </c>
+      <c r="D14" s="20">
+        <v>86</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
         <v>85</v>
       </c>
-      <c r="L4" s="105">
-        <v>112</v>
-      </c>
-      <c r="M4" s="106">
-        <v>26</v>
-      </c>
-      <c r="N4" s="114">
-        <v>67</v>
-      </c>
-      <c r="O4" s="107">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="106">
-        <v>39</v>
-      </c>
-      <c r="C5" s="107">
-        <v>85</v>
-      </c>
-      <c r="D5" s="105">
-        <v>39</v>
-      </c>
-      <c r="E5" s="106">
+      <c r="G14" s="22">
+        <v>99</v>
+      </c>
+      <c r="H14" s="20">
+        <v>86</v>
+      </c>
+      <c r="I14" s="21">
+        <v>8</v>
+      </c>
+      <c r="J14" s="29">
+        <v>77</v>
+      </c>
+      <c r="K14" s="22">
+        <v>90</v>
+      </c>
+      <c r="L14" s="20">
+        <v>84</v>
+      </c>
+      <c r="M14" s="21">
+        <v>20</v>
+      </c>
+      <c r="N14" s="29">
+        <v>63</v>
+      </c>
+      <c r="O14" s="22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="18">
+        <v>8</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>8</v>
+      </c>
+      <c r="E15" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="114">
-        <v>39</v>
-      </c>
-      <c r="G5" s="107">
+      <c r="F15" s="30">
+        <v>8</v>
+      </c>
+      <c r="G15" s="19">
         <v>100</v>
       </c>
-      <c r="H5" s="105">
-        <v>39</v>
-      </c>
-      <c r="I5" s="106">
-        <v>1</v>
-      </c>
-      <c r="J5" s="114">
-        <v>39</v>
-      </c>
-      <c r="K5" s="107">
-        <v>100</v>
-      </c>
-      <c r="L5" s="105">
-        <v>39</v>
-      </c>
-      <c r="M5" s="106">
-        <v>5</v>
-      </c>
-      <c r="N5" s="114">
-        <v>34</v>
-      </c>
-      <c r="O5" s="107">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="106">
+      <c r="H15" s="17">
+        <v>8</v>
+      </c>
+      <c r="I15" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="107">
-        <v>50</v>
-      </c>
-      <c r="D6" s="105">
-        <v>4</v>
-      </c>
-      <c r="E6" s="106">
-        <v>1</v>
-      </c>
-      <c r="F6" s="114">
-        <v>4</v>
-      </c>
-      <c r="G6" s="107">
-        <v>100</v>
-      </c>
-      <c r="H6" s="105">
-        <v>4</v>
-      </c>
-      <c r="I6" s="106">
+      <c r="J15" s="30">
         <v>3</v>
       </c>
-      <c r="J6" s="114">
-        <v>2</v>
-      </c>
-      <c r="K6" s="107">
-        <v>50</v>
-      </c>
-      <c r="L6" s="117">
-        <v>1</v>
-      </c>
-      <c r="M6" s="118">
-        <v>1</v>
-      </c>
-      <c r="N6" s="119">
-        <v>0</v>
-      </c>
-      <c r="O6" s="120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="106">
-        <v>40</v>
-      </c>
-      <c r="C7" s="107">
-        <v>0</v>
-      </c>
-      <c r="D7" s="105">
-        <v>40</v>
-      </c>
-      <c r="E7" s="106">
-        <v>1</v>
-      </c>
-      <c r="F7" s="114">
-        <v>40</v>
-      </c>
-      <c r="G7" s="107">
-        <v>100</v>
-      </c>
-      <c r="H7" s="105">
-        <v>40</v>
-      </c>
-      <c r="I7" s="106">
-        <v>11</v>
-      </c>
-      <c r="J7" s="114">
-        <v>22</v>
-      </c>
-      <c r="K7" s="107">
-        <v>55</v>
-      </c>
-      <c r="L7" s="105">
-        <v>40</v>
-      </c>
-      <c r="M7" s="106">
-        <v>17</v>
-      </c>
-      <c r="N7" s="114">
-        <v>22</v>
-      </c>
-      <c r="O7" s="107">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="106">
-        <v>116</v>
-      </c>
-      <c r="C8" s="107">
-        <v>85</v>
-      </c>
-      <c r="D8" s="105">
-        <v>116</v>
-      </c>
-      <c r="E8" s="106">
-        <v>2</v>
-      </c>
-      <c r="F8" s="114">
-        <v>88</v>
-      </c>
-      <c r="G8" s="107">
-        <v>76</v>
-      </c>
-      <c r="H8" s="105">
-        <v>116</v>
-      </c>
-      <c r="I8" s="106">
-        <v>9</v>
-      </c>
-      <c r="J8" s="114">
-        <v>70</v>
-      </c>
-      <c r="K8" s="107">
-        <v>60</v>
-      </c>
-      <c r="L8" s="105">
-        <v>110</v>
-      </c>
-      <c r="M8" s="106">
+      <c r="K15" s="19">
         <v>38</v>
       </c>
-      <c r="N8" s="114">
-        <v>37</v>
-      </c>
-      <c r="O8" s="107">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="106">
-        <v>54</v>
-      </c>
-      <c r="C9" s="107">
-        <v>69</v>
-      </c>
-      <c r="D9" s="105">
-        <v>54</v>
-      </c>
-      <c r="E9" s="106">
-        <v>2</v>
-      </c>
-      <c r="F9" s="114">
-        <v>52</v>
-      </c>
-      <c r="G9" s="107">
-        <v>96</v>
-      </c>
-      <c r="H9" s="105">
-        <v>54</v>
-      </c>
-      <c r="I9" s="106">
-        <v>4</v>
-      </c>
-      <c r="J9" s="114">
-        <v>49</v>
-      </c>
-      <c r="K9" s="107">
-        <v>91</v>
-      </c>
-      <c r="L9" s="105">
-        <v>54</v>
-      </c>
-      <c r="M9" s="106">
-        <v>10</v>
-      </c>
-      <c r="N9" s="114">
-        <v>47</v>
-      </c>
-      <c r="O9" s="107">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="106">
-        <v>11</v>
-      </c>
-      <c r="C10" s="107">
-        <v>91</v>
-      </c>
-      <c r="D10" s="105">
-        <v>11</v>
-      </c>
-      <c r="E10" s="106">
-        <v>2</v>
-      </c>
-      <c r="F10" s="114">
-        <v>9</v>
-      </c>
-      <c r="G10" s="107">
-        <v>82</v>
-      </c>
-      <c r="H10" s="105">
-        <v>11</v>
-      </c>
-      <c r="I10" s="106">
-        <v>2</v>
-      </c>
-      <c r="J10" s="114">
-        <v>9</v>
-      </c>
-      <c r="K10" s="107">
-        <v>82</v>
-      </c>
-      <c r="L10" s="105">
-        <v>11</v>
-      </c>
-      <c r="M10" s="106">
+      <c r="L15" s="17">
+        <v>8</v>
+      </c>
+      <c r="M15" s="18">
+        <v>6</v>
+      </c>
+      <c r="N15" s="30">
         <v>3</v>
       </c>
-      <c r="N10" s="114">
-        <v>9</v>
-      </c>
-      <c r="O10" s="107">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="106">
-        <v>11</v>
-      </c>
-      <c r="C11" s="107">
-        <v>91</v>
-      </c>
-      <c r="D11" s="105">
-        <v>11</v>
-      </c>
-      <c r="E11" s="106">
-        <v>1</v>
-      </c>
-      <c r="F11" s="114">
-        <v>11</v>
-      </c>
-      <c r="G11" s="107">
-        <v>100</v>
-      </c>
-      <c r="H11" s="105">
-        <v>11</v>
-      </c>
-      <c r="I11" s="106">
-        <v>2</v>
-      </c>
-      <c r="J11" s="114">
-        <v>11</v>
-      </c>
-      <c r="K11" s="107">
-        <v>100</v>
-      </c>
-      <c r="L11" s="105">
-        <v>11</v>
-      </c>
-      <c r="M11" s="106">
-        <v>7</v>
-      </c>
-      <c r="N11" s="114">
-        <v>5</v>
-      </c>
-      <c r="O11" s="107">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="106">
-        <v>12</v>
-      </c>
-      <c r="C12" s="107">
-        <v>0</v>
-      </c>
-      <c r="D12" s="105">
-        <v>12</v>
-      </c>
-      <c r="E12" s="106">
-        <v>2</v>
-      </c>
-      <c r="F12" s="114">
-        <v>11</v>
-      </c>
-      <c r="G12" s="107">
-        <v>92</v>
-      </c>
-      <c r="H12" s="105">
-        <v>12</v>
-      </c>
-      <c r="I12" s="106">
-        <v>5</v>
-      </c>
-      <c r="J12" s="114">
-        <v>10</v>
-      </c>
-      <c r="K12" s="107">
-        <v>83</v>
-      </c>
-      <c r="L12" s="105">
-        <v>12</v>
-      </c>
-      <c r="M12" s="106">
-        <v>5</v>
-      </c>
-      <c r="N12" s="114">
-        <v>10</v>
-      </c>
-      <c r="O12" s="107">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="106">
-        <v>103</v>
-      </c>
-      <c r="C13" s="107">
-        <v>100</v>
-      </c>
-      <c r="D13" s="105">
-        <v>103</v>
-      </c>
-      <c r="E13" s="106">
-        <v>1</v>
-      </c>
-      <c r="F13" s="114">
-        <v>103</v>
-      </c>
-      <c r="G13" s="107">
-        <v>100</v>
-      </c>
-      <c r="H13" s="105">
-        <v>103</v>
-      </c>
-      <c r="I13" s="106">
-        <v>2</v>
-      </c>
-      <c r="J13" s="114">
-        <v>100</v>
-      </c>
-      <c r="K13" s="107">
-        <v>97</v>
-      </c>
-      <c r="L13" s="105">
-        <v>99</v>
-      </c>
-      <c r="M13" s="106">
-        <v>4</v>
-      </c>
-      <c r="N13" s="114">
-        <v>95</v>
-      </c>
-      <c r="O13" s="107">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="106">
-        <v>86</v>
-      </c>
-      <c r="C14" s="107">
-        <v>93</v>
-      </c>
-      <c r="D14" s="105">
-        <v>86</v>
-      </c>
-      <c r="E14" s="106">
-        <v>2</v>
-      </c>
-      <c r="F14" s="114">
-        <v>85</v>
-      </c>
-      <c r="G14" s="107">
-        <v>99</v>
-      </c>
-      <c r="H14" s="105">
-        <v>86</v>
-      </c>
-      <c r="I14" s="106">
-        <v>8</v>
-      </c>
-      <c r="J14" s="114">
-        <v>77</v>
-      </c>
-      <c r="K14" s="107">
-        <v>90</v>
-      </c>
-      <c r="L14" s="105">
-        <v>84</v>
-      </c>
-      <c r="M14" s="106">
-        <v>20</v>
-      </c>
-      <c r="N14" s="114">
-        <v>63</v>
-      </c>
-      <c r="O14" s="107">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="100">
-        <v>8</v>
-      </c>
-      <c r="C15" s="101">
-        <v>0</v>
-      </c>
-      <c r="D15" s="99">
-        <v>8</v>
-      </c>
-      <c r="E15" s="100">
-        <v>1</v>
-      </c>
-      <c r="F15" s="115">
-        <v>8</v>
-      </c>
-      <c r="G15" s="101">
-        <v>100</v>
-      </c>
-      <c r="H15" s="99">
-        <v>8</v>
-      </c>
-      <c r="I15" s="100">
-        <v>4</v>
-      </c>
-      <c r="J15" s="115">
-        <v>3</v>
-      </c>
-      <c r="K15" s="101">
+      <c r="O15" s="19">
         <v>38</v>
       </c>
-      <c r="L15" s="99">
-        <v>8</v>
-      </c>
-      <c r="M15" s="100">
-        <v>6</v>
-      </c>
-      <c r="N15" s="115">
-        <v>3</v>
-      </c>
-      <c r="O15" s="101">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>174</v>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:O1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA28B22-3B88-4098-8824-D84E8190D54A}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.08984375" customWidth="1"/>
+    <col min="11" max="11" width="32.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="27.7265625" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="114" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" s="92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="116">
+        <v>117</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="117">
+        <v>100</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="119">
+        <v>100</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="117">
+        <v>100</v>
+      </c>
+      <c r="I4" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="119">
+        <v>100</v>
+      </c>
+      <c r="K4" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="117">
+        <v>99</v>
+      </c>
+      <c r="M4" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="116">
+        <v>39</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="117">
+        <v>100</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="126">
+        <v>63</v>
+      </c>
+      <c r="G5" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="117">
+        <v>100</v>
+      </c>
+      <c r="I5" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="126">
+        <v>41</v>
+      </c>
+      <c r="K5" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="117">
+        <v>100</v>
+      </c>
+      <c r="M5" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="126">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="116">
+        <v>4</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="117">
+        <v>100</v>
+      </c>
+      <c r="E6" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="126">
+        <v>63</v>
+      </c>
+      <c r="G6" s="115" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="125">
+        <v>44</v>
+      </c>
+      <c r="I6" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="126">
+        <v>41</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="125">
+        <v>56</v>
+      </c>
+      <c r="M6" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="126">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="116">
+        <v>40</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="117">
+        <v>98</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="119">
+        <v>91</v>
+      </c>
+      <c r="G7" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="125">
+        <v>63</v>
+      </c>
+      <c r="I7" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="119">
+        <v>93</v>
+      </c>
+      <c r="K7" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="125">
+        <v>37</v>
+      </c>
+      <c r="M7" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" s="126">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="116">
+        <v>116</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="117">
+        <v>92</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="119">
+        <v>95</v>
+      </c>
+      <c r="G8" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="117">
+        <v>94</v>
+      </c>
+      <c r="I8" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="119">
+        <v>96</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="125">
+        <v>59</v>
+      </c>
+      <c r="M8" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="N8" s="126">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="116">
+        <v>54</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="117">
+        <v>100</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="119">
+        <v>95</v>
+      </c>
+      <c r="G9" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="117">
+        <v>100</v>
+      </c>
+      <c r="I9" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="119">
+        <v>96</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="125">
+        <v>50</v>
+      </c>
+      <c r="M9" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="N9" s="126">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="116">
+        <v>11</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="125">
+        <v>59</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="119">
+        <v>96</v>
+      </c>
+      <c r="G10" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="117">
+        <v>97</v>
+      </c>
+      <c r="I10" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="119">
+        <v>92</v>
+      </c>
+      <c r="K10" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="125">
+        <v>68</v>
+      </c>
+      <c r="M10" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="N10" s="126">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="116">
+        <v>11</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="117">
+        <v>100</v>
+      </c>
+      <c r="E11" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="119">
+        <v>96</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="117">
+        <v>95</v>
+      </c>
+      <c r="I11" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="119">
+        <v>92</v>
+      </c>
+      <c r="K11" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="125">
+        <v>32</v>
+      </c>
+      <c r="M11" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="N11" s="126">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="116">
+        <v>12</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="117">
+        <v>97</v>
+      </c>
+      <c r="E12" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="119">
+        <v>100</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="125">
+        <v>69</v>
+      </c>
+      <c r="I12" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="126">
+        <v>57</v>
+      </c>
+      <c r="K12" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="L12" s="125">
+        <v>71</v>
+      </c>
+      <c r="M12" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="N12" s="126">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="116">
+        <v>103</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="117">
+        <v>100</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="119">
+        <v>100</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="117">
+        <v>92</v>
+      </c>
+      <c r="I13" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="126">
+        <v>64</v>
+      </c>
+      <c r="K13" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="125">
+        <v>76</v>
+      </c>
+      <c r="M13" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" s="126">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="116">
+        <v>86</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="117">
+        <v>94</v>
+      </c>
+      <c r="E14" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="126">
+        <v>52</v>
+      </c>
+      <c r="G14" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="125">
+        <v>71</v>
+      </c>
+      <c r="I14" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="126">
+        <v>85</v>
+      </c>
+      <c r="K14" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="117">
+        <v>99</v>
+      </c>
+      <c r="M14" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="126">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="120">
+        <v>8</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="121">
+        <v>99</v>
+      </c>
+      <c r="E15" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="121">
+        <v>100</v>
+      </c>
+      <c r="I15" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15" s="127">
+        <v>49</v>
+      </c>
+      <c r="M15" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="124" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/academic/Eaton et al. 2021 Plagued by a cryptic clock.xlsx
+++ b/academic/Eaton et al. 2021 Plagued by a cryptic clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktmea\Projects\obsidian-public\academic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E855D0DA-867D-4D79-8AA5-BD26F7EBB45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A8F50C-33D2-4721-903F-63837C4ADAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table SI 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="201">
   <si>
     <t xml:space="preserve">   1.ORI    </t>
   </si>
@@ -842,6 +842,12 @@
   </si>
   <si>
     <t>Tatarstan, Russia</t>
+  </si>
+  <si>
+    <t>95% CI Low</t>
+  </si>
+  <si>
+    <t>95% CI High</t>
   </si>
 </sst>
 </file>
@@ -1801,27 +1807,6 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1853,15 +1838,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1881,12 +1857,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1907,9 +1877,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2080,6 +2047,45 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2461,17 +2467,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2503,32 +2509,32 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="33">
         <v>1</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="33">
         <v>117</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="33">
         <v>1924</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="33">
         <v>2016</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="40">
         <f>G3-F3</f>
         <v>92</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2554,7 +2560,7 @@
       <c r="G4" s="6">
         <v>2008</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="41">
         <f t="shared" ref="H4:H13" si="0">G4-F4</f>
         <v>54</v>
       </c>
@@ -2584,7 +2590,7 @@
       <c r="G5" s="6">
         <v>2004</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="41">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -2614,7 +2620,7 @@
       <c r="G6" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="41">
         <f>1800-1270</f>
         <v>530</v>
       </c>
@@ -2644,7 +2650,7 @@
       <c r="G7" s="6">
         <v>2018</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="41">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -2674,7 +2680,7 @@
       <c r="G8" s="6">
         <v>2008</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="41">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -2704,7 +2710,7 @@
       <c r="G9" s="6">
         <v>2015</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="41">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -2734,7 +2740,7 @@
       <c r="G10" s="6">
         <v>2017</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="41">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -2764,7 +2770,7 @@
       <c r="G11" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="41">
         <f>880-214</f>
         <v>666</v>
       </c>
@@ -2794,7 +2800,7 @@
       <c r="G12" s="6">
         <v>2019</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="41">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -2824,7 +2830,7 @@
       <c r="G13" s="6">
         <v>2014</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="41">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -2854,7 +2860,7 @@
       <c r="G14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="42">
         <f>2876-1626</f>
         <v>1250</v>
       </c>
@@ -2863,33 +2869,33 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="45"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="7:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G17" s="39"/>
+      <c r="G17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2922,16 +2928,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2960,340 +2966,340 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="35">
         <v>117</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="43">
         <f>H3-G3</f>
         <v>35.669999999925494</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="45">
         <v>-5899691.1145000001</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="45">
         <v>-5899661.4930999996</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="45">
         <v>-5899601.4133000001</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="45">
         <v>-5899565.7433000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="35">
         <v>39</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="44">
         <f t="shared" ref="D4:D14" si="0">H4-G4</f>
         <v>-10.331400000490248</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="46">
         <v>-5891399.1682000002</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="46">
         <v>-5891402.6964999996</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="46">
         <v>-5891344.1825999999</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="46">
         <v>-5891354.5140000004</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="44">
         <f t="shared" si="0"/>
         <v>12.690900000743568</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="46">
         <v>-5882596.1550000003</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="46">
         <v>-5882586.8744000001</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="46">
         <v>-5882594.5546000004</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="46">
         <v>-5882581.8636999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="35">
         <v>40</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="44">
         <f t="shared" si="0"/>
         <v>44.081500000320375</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="46">
         <v>-5888139.9846999999</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="46">
         <v>-5888129.8859000001</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="46">
         <v>-5888082.1341000004</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="46">
         <v>-5888038.0526000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="35">
         <v>116</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="44">
         <f t="shared" si="0"/>
         <v>3.9017000002786517</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="46">
         <v>-5920837.3496000003</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="46">
         <v>-5920732.7741</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="46">
         <v>-5919662.0376000004</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="46">
         <v>-5919658.1359000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="35">
         <v>54</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="44">
         <f t="shared" si="0"/>
         <v>-13.384899999946356</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="46">
         <v>-5892876.2267000005</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="46">
         <v>-5892894.9243999999</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="46">
         <v>-5892791.2691000002</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="46">
         <v>-5892804.6540000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="35">
         <v>11</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="44">
         <f t="shared" si="0"/>
         <v>3.6091000000014901</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="46">
         <v>-5886031.4231000002</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="46">
         <v>-5886034.1161000002</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="46">
         <v>-5886025.5778000001</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="46">
         <v>-5886021.9687000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="35">
         <v>11</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="44">
         <f t="shared" si="0"/>
         <v>-11.17200000025332</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="46">
         <v>-5887496.5444</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="46">
         <v>-5887506.0362999998</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <v>-5887494.6684999997</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="46">
         <v>-5887505.8404999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="35">
         <v>12</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>5.9207999994978309</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="46">
         <v>-5889525.7034</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="46">
         <v>-5889520.4452999998</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="46">
         <v>-5889501.7253999999</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="46">
         <v>-5889495.8046000004</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="35">
         <v>103</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="44">
         <f t="shared" si="0"/>
         <v>13297.716300000437</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="46">
         <v>-5896014.0886000004</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="46">
         <v>-5896016.4718000004</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="46">
         <v>-5895879.7017000001</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="46">
         <v>-5882581.9853999997</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="35">
         <v>85</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="44">
         <f t="shared" si="0"/>
         <v>12.378299999982119</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="46">
         <v>-5945602.8430000003</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="46">
         <v>-5945574.0226999996</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="46">
         <v>-5944626.6984000001</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="46">
         <v>-5944614.3201000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="36">
         <v>8</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="48">
         <f t="shared" si="0"/>
         <v>-2.8141000000759959</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="47">
         <v>-5892925.9007999999</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="47">
         <v>-5892842.8987999996</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="47">
         <v>-5892738.5632999996</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="47">
         <v>-5892741.3773999996</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3308,7 +3314,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3329,542 +3335,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="35">
         <v>143600000</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="35">
         <f>C3*0.1</f>
         <v>14360000</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="35">
         <v>1885</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="52">
         <v>1.2700000000000001E-7</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="52">
         <v>1.66E-7</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="53">
         <v>1.29</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="53" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="59" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:12" s="49" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="35">
         <v>1000000000</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="35">
         <f t="shared" ref="D4:D14" si="0">C4*0.1</f>
         <v>100000000</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="35">
         <v>1882</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="52">
         <v>8.3200000000000004E-8</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="52">
         <v>1.6E-7</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="53">
         <v>1.89</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="53" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="35">
         <v>1000000000</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="35">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="35">
         <v>1780</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="52">
         <v>5.84E-8</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="52">
         <v>-1.0499999999999999E-11</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="53">
         <v>9.4500000000000007E-5</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="53" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="35">
         <v>426000000</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="35">
         <f t="shared" si="0"/>
         <v>42600000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="35">
         <v>1300</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="52">
         <v>4.6800000000000002E-8</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="52">
         <v>8.5899999999999995E-8</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="53">
         <v>1.82</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="53" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="35">
         <v>371100000</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="35">
         <f t="shared" si="0"/>
         <v>37110000</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="35">
         <v>1796</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="52">
         <v>2.41E-7</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="52">
         <v>6.8700000000000005E-7</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="53">
         <v>2.76</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="53" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="59" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:12" s="49" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="35">
         <v>1000000000</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="35">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="35">
         <v>1798</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="52">
         <v>8.1800000000000005E-8</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="52">
         <v>2.3099999999999999E-7</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="53">
         <v>2.91</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="53" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="35">
         <v>1000000000</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="35">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <v>1954</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="52">
         <v>7.9899999999999994E-8</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="52">
         <v>1.6500000000000001E-7</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="53">
         <v>1.94</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="59" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:12" s="49" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="35">
         <v>1000000000</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="35">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="35">
         <v>1924</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="52">
         <v>6.2499999999999997E-8</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="52">
         <v>1.1300000000000001E-7</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="53">
         <v>1.75</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="53" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="35">
         <v>1000000000</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="35">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="35">
         <v>223</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="52">
         <v>3.6300000000000001E-8</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="52">
         <v>7.2499999999999994E-8</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="53">
         <v>2.06</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="53" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="35">
         <v>1000000000</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="35">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="35">
         <v>1698</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="52">
         <v>5.6500000000000003E-8</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="52">
         <v>1.03E-7</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="53">
         <v>1.82</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="53" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="35">
         <v>443400000</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="35">
         <f t="shared" si="0"/>
         <v>44340000</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="35">
         <v>1814</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="52">
         <v>6.1600000000000001E-7</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="52">
         <v>1.3E-6</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="53">
         <v>2.09</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="53" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="36">
         <v>5000000000</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="36">
         <f t="shared" si="0"/>
         <v>500000000</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="36">
         <v>-2816</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="54">
         <v>5.5600000000000002E-8</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="54">
         <v>7.2699999999999996E-8</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="55">
         <v>1.37</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L14" s="55" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="10"/>
@@ -3915,578 +3921,885 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15" style="45" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="13" style="45" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="16.90625" style="45" customWidth="1"/>
-    <col min="11" max="14" width="27.90625" style="45" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="45"/>
+    <col min="1" max="1" width="23.26953125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="38" customWidth="1"/>
+    <col min="4" max="5" width="22.26953125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="38" customWidth="1"/>
+    <col min="8" max="10" width="15" style="38" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="13" style="38" customWidth="1"/>
+    <col min="13" max="15" width="16.26953125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="16.90625" style="38" customWidth="1"/>
+    <col min="17" max="20" width="27.90625" style="38" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:23" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="69"/>
-    </row>
-    <row r="2" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="125"/>
+    </row>
+    <row r="2" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-    </row>
-    <row r="3" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="70" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="122"/>
+    </row>
+    <row r="3" spans="1:23" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="G3" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="H3" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="I3" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="L3" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="M3" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="N3" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="P3" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="65">
         <v>1.4147471863961001E-7</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="66">
         <v>9.6581445392694502E-8</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="66">
+        <v>2.8133672907812899E-8</v>
+      </c>
+      <c r="E4" s="66">
+        <v>4.3768306674976698E-7</v>
+      </c>
+      <c r="F4" s="67">
         <v>1.3765773625331801E-7</v>
       </c>
-      <c r="E4" s="81">
+      <c r="G4" s="68">
         <v>0.59831044964933899</v>
       </c>
-      <c r="F4" s="82">
+      <c r="H4" s="69">
         <v>0.40845239754735302</v>
       </c>
-      <c r="G4" s="82">
+      <c r="I4" s="69">
+        <v>0.118980059827085</v>
+      </c>
+      <c r="J4" s="69">
+        <v>1.8510045822253001</v>
+      </c>
+      <c r="K4" s="69">
         <v>0.582168057073437</v>
       </c>
-      <c r="H4" s="81">
-        <f>1/E4</f>
+      <c r="L4" s="68">
+        <f t="shared" ref="L4:L15" si="0">1/G4</f>
         <v>1.6713731150543758</v>
       </c>
-      <c r="I4" s="82">
-        <f t="shared" ref="I4:I15" si="0">1/F4</f>
+      <c r="M4" s="69">
+        <f t="shared" ref="M4:M15" si="1">1/H4</f>
         <v>2.4482657122463509</v>
       </c>
-      <c r="J4" s="83">
-        <f t="shared" ref="J4:J15" si="1">1/G4</f>
+      <c r="N4" s="69">
+        <f>1/J4</f>
+        <v>0.5402471769128675</v>
+      </c>
+      <c r="O4" s="69">
+        <f>1/I4</f>
+        <v>8.4047696853851885</v>
+      </c>
+      <c r="P4" s="70">
+        <f t="shared" ref="P4:P15" si="2">1/K4</f>
         <v>1.7177170541218068</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="65">
         <v>8.9201527841334796E-8</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="66">
         <v>3.8752654371032101E-8</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="66">
+        <v>7.6734691773931499E-9</v>
+      </c>
+      <c r="E5" s="66">
+        <v>2.1702730722648499E-7</v>
+      </c>
+      <c r="F5" s="67">
         <v>1.92467409344193E-7</v>
       </c>
-      <c r="E5" s="81">
+      <c r="G5" s="68">
         <v>0.37724200299073302</v>
       </c>
-      <c r="F5" s="82">
+      <c r="H5" s="69">
         <v>0.16388877309522301</v>
       </c>
-      <c r="G5" s="82">
+      <c r="I5" s="69">
+        <v>3.2451853151174999E-2</v>
+      </c>
+      <c r="J5" s="69">
+        <v>0.91782975093691699</v>
+      </c>
+      <c r="K5" s="69">
         <v>0.81396353592270998</v>
       </c>
-      <c r="H5" s="81">
-        <f t="shared" ref="H5:H15" si="2">1/E5</f>
+      <c r="L5" s="68">
+        <f t="shared" si="0"/>
         <v>2.6508182865961643</v>
       </c>
-      <c r="I5" s="82">
+      <c r="M5" s="69">
+        <f t="shared" si="1"/>
+        <v>6.1016992263343006</v>
+      </c>
+      <c r="N5" s="69">
+        <f t="shared" ref="N5:N15" si="3">1/J5</f>
+        <v>1.0895266785361926</v>
+      </c>
+      <c r="O5" s="69">
+        <f t="shared" ref="O5:O15" si="4">1/I5</f>
+        <v>30.81488121314861</v>
+      </c>
+      <c r="P5" s="70">
+        <f t="shared" si="2"/>
+        <v>1.228556263108763</v>
+      </c>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="65">
+        <v>5.5556110260483602E-8</v>
+      </c>
+      <c r="C6" s="66">
+        <v>6.3226430608938998E-8</v>
+      </c>
+      <c r="D6" s="66">
+        <v>1.8967929182681699E-8</v>
+      </c>
+      <c r="E6" s="66">
+        <v>6.8083227372407198E-8</v>
+      </c>
+      <c r="F6" s="67">
+        <v>2.4588570026093999E-8</v>
+      </c>
+      <c r="G6" s="68">
+        <v>0.23495223479039001</v>
+      </c>
+      <c r="H6" s="69">
+        <v>0.267390771235402</v>
+      </c>
+      <c r="I6" s="69">
+        <v>8.0217231370620895E-2</v>
+      </c>
+      <c r="J6" s="69">
+        <v>0.287930640714192</v>
+      </c>
+      <c r="K6" s="69">
+        <v>0.10398747232021401</v>
+      </c>
+      <c r="L6" s="68">
         <f t="shared" si="0"/>
-        <v>6.1016992263343006</v>
-      </c>
-      <c r="J5" s="83">
+        <v>4.2561842448195426</v>
+      </c>
+      <c r="M6" s="69">
         <f t="shared" si="1"/>
-        <v>1.228556263108763</v>
-      </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="78">
-        <v>5.5556110260483602E-8</v>
-      </c>
-      <c r="C6" s="79">
-        <v>6.3226430608938998E-8</v>
-      </c>
-      <c r="D6" s="80">
-        <v>2.4588570026093999E-8</v>
-      </c>
-      <c r="E6" s="81">
-        <v>0.23495223479039001</v>
-      </c>
-      <c r="F6" s="82">
-        <v>0.267390771235402</v>
-      </c>
-      <c r="G6" s="82">
-        <v>0.10398747232021401</v>
-      </c>
-      <c r="H6" s="81">
+        <v>3.7398448547038035</v>
+      </c>
+      <c r="N6" s="69">
+        <f t="shared" si="3"/>
+        <v>3.4730586418992062</v>
+      </c>
+      <c r="O6" s="69">
+        <f t="shared" si="4"/>
+        <v>12.4661495156793</v>
+      </c>
+      <c r="P6" s="70">
         <f t="shared" si="2"/>
-        <v>4.2561842448195426</v>
-      </c>
-      <c r="I6" s="82">
+        <v>9.6165430093410507</v>
+      </c>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="65">
+        <v>5.1097666695877699E-8</v>
+      </c>
+      <c r="C7" s="66">
+        <v>2.4869890116410598E-8</v>
+      </c>
+      <c r="D7" s="66">
+        <v>8.4228519108261592E-9</v>
+      </c>
+      <c r="E7" s="66">
+        <v>1.83509248396217E-7</v>
+      </c>
+      <c r="F7" s="67">
+        <v>9.54590716687987E-8</v>
+      </c>
+      <c r="G7" s="68">
+        <v>0.21609704002820301</v>
+      </c>
+      <c r="H7" s="69">
+        <v>0.105177202551532</v>
+      </c>
+      <c r="I7" s="69">
+        <v>3.5621066170371002E-2</v>
+      </c>
+      <c r="J7" s="69">
+        <v>0.77607859537394597</v>
+      </c>
+      <c r="K7" s="69">
+        <v>0.40370576907637301</v>
+      </c>
+      <c r="L7" s="68">
         <f t="shared" si="0"/>
-        <v>3.7398448547038035</v>
-      </c>
-      <c r="J6" s="83">
+        <v>4.6275506590441458</v>
+      </c>
+      <c r="M7" s="69">
         <f t="shared" si="1"/>
-        <v>9.6165430093410507</v>
-      </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="78">
-        <v>5.1097666695877699E-8</v>
-      </c>
-      <c r="C7" s="79">
-        <v>2.4869890116410598E-8</v>
-      </c>
-      <c r="D7" s="80">
-        <v>9.54590716687987E-8</v>
-      </c>
-      <c r="E7" s="81">
-        <v>0.21609704002820301</v>
-      </c>
-      <c r="F7" s="82">
-        <v>0.105177202551532</v>
-      </c>
-      <c r="G7" s="82">
-        <v>0.40370576907637301</v>
-      </c>
-      <c r="H7" s="81">
+        <v>9.5077638094628529</v>
+      </c>
+      <c r="N7" s="69">
+        <f t="shared" si="3"/>
+        <v>1.2885292880911883</v>
+      </c>
+      <c r="O7" s="69">
+        <f t="shared" si="4"/>
+        <v>28.073275381964368</v>
+      </c>
+      <c r="P7" s="70">
         <f t="shared" si="2"/>
-        <v>4.6275506590441458</v>
-      </c>
-      <c r="I7" s="82">
+        <v>2.4770515474373123</v>
+      </c>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="65">
+        <v>3.4498430728329802E-7</v>
+      </c>
+      <c r="C8" s="66">
+        <v>7.1508311196126096E-8</v>
+      </c>
+      <c r="D8" s="66">
+        <v>7.5122299700155501E-9</v>
+      </c>
+      <c r="E8" s="66">
+        <v>1.9919377702777501E-6</v>
+      </c>
+      <c r="F8" s="67">
+        <v>1.02371357339484E-6</v>
+      </c>
+      <c r="G8" s="68">
+        <v>1.4589724439631799</v>
+      </c>
+      <c r="H8" s="69">
+        <v>0.30241565586291402</v>
+      </c>
+      <c r="I8" s="69">
+        <v>3.1769956741732802E-2</v>
+      </c>
+      <c r="J8" s="69">
+        <v>8.4241000404061097</v>
+      </c>
+      <c r="K8" s="69">
+        <v>4.3293850258170004</v>
+      </c>
+      <c r="L8" s="68">
         <f t="shared" si="0"/>
-        <v>9.5077638094628529</v>
-      </c>
-      <c r="J7" s="83">
+        <v>0.68541390492858201</v>
+      </c>
+      <c r="M8" s="69">
         <f t="shared" si="1"/>
-        <v>2.4770515474373123</v>
-      </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="78">
-        <v>3.4498430728329802E-7</v>
-      </c>
-      <c r="C8" s="79">
-        <v>7.1508311196126096E-8</v>
-      </c>
-      <c r="D8" s="80">
-        <v>1.02371357339484E-6</v>
-      </c>
-      <c r="E8" s="81">
-        <v>1.4589724439631799</v>
-      </c>
-      <c r="F8" s="82">
-        <v>0.30241565586291402</v>
-      </c>
-      <c r="G8" s="82">
-        <v>4.3293850258170004</v>
-      </c>
-      <c r="H8" s="81">
+        <v>3.3067071119271128</v>
+      </c>
+      <c r="N8" s="69">
+        <f t="shared" si="3"/>
+        <v>0.11870704231947748</v>
+      </c>
+      <c r="O8" s="69">
+        <f t="shared" si="4"/>
+        <v>31.476278300574666</v>
+      </c>
+      <c r="P8" s="70">
         <f t="shared" si="2"/>
-        <v>0.68541390492858201</v>
-      </c>
-      <c r="I8" s="82">
+        <v>0.23097968742368657</v>
+      </c>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="65">
+        <v>1.00518867433374E-7</v>
+      </c>
+      <c r="C9" s="66">
+        <v>2.8489205997588399E-8</v>
+      </c>
+      <c r="D9" s="66">
+        <v>4.5975910952249498E-9</v>
+      </c>
+      <c r="E9" s="66">
+        <v>2.1215471126579499E-7</v>
+      </c>
+      <c r="F9" s="67">
+        <v>3.4707238585964698E-7</v>
+      </c>
+      <c r="G9" s="68">
+        <v>0.42510414122474899</v>
+      </c>
+      <c r="H9" s="69">
+        <v>0.120483644105989</v>
+      </c>
+      <c r="I9" s="69">
+        <v>1.9443663305633602E-2</v>
+      </c>
+      <c r="J9" s="69">
+        <v>0.89722306510475203</v>
+      </c>
+      <c r="K9" s="69">
+        <v>1.46780313289426</v>
+      </c>
+      <c r="L9" s="68">
         <f t="shared" si="0"/>
-        <v>3.3067071119271128</v>
-      </c>
-      <c r="J8" s="83">
+        <v>2.3523647573014546</v>
+      </c>
+      <c r="M9" s="69">
         <f t="shared" si="1"/>
-        <v>0.23097968742368657</v>
-      </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="78">
-        <v>1.00518867433374E-7</v>
-      </c>
-      <c r="C9" s="79">
-        <v>2.8489205997588399E-8</v>
-      </c>
-      <c r="D9" s="80">
-        <v>3.4707238585964698E-7</v>
-      </c>
-      <c r="E9" s="81">
-        <v>0.42510414122474899</v>
-      </c>
-      <c r="F9" s="82">
-        <v>0.120483644105989</v>
-      </c>
-      <c r="G9" s="82">
-        <v>1.46780313289426</v>
-      </c>
-      <c r="H9" s="81">
+        <v>8.2998817592228864</v>
+      </c>
+      <c r="N9" s="69">
+        <f t="shared" si="3"/>
+        <v>1.1145500365433079</v>
+      </c>
+      <c r="O9" s="69">
+        <f t="shared" si="4"/>
+        <v>51.430637544019817</v>
+      </c>
+      <c r="P9" s="70">
         <f t="shared" si="2"/>
-        <v>2.3523647573014546</v>
-      </c>
-      <c r="I9" s="82">
+        <v>0.68129027496226202</v>
+      </c>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="65">
+        <v>1.3086924358689199E-7</v>
+      </c>
+      <c r="C10" s="66">
+        <v>5.4597254056147403E-8</v>
+      </c>
+      <c r="D10" s="66">
+        <v>2.3122137347586701E-9</v>
+      </c>
+      <c r="E10" s="66">
+        <v>7.78697414614951E-7</v>
+      </c>
+      <c r="F10" s="67">
+        <v>2.6054325687008101E-7</v>
+      </c>
+      <c r="G10" s="68">
+        <v>0.55345885631483804</v>
+      </c>
+      <c r="H10" s="69">
+        <v>0.23089713793434499</v>
+      </c>
+      <c r="I10" s="69">
+        <v>9.7785784812404308E-3</v>
+      </c>
+      <c r="J10" s="69">
+        <v>3.2931876787532599</v>
+      </c>
+      <c r="K10" s="69">
+        <v>1.10186296654274</v>
+      </c>
+      <c r="L10" s="68">
         <f t="shared" si="0"/>
-        <v>8.2998817592228864</v>
-      </c>
-      <c r="J9" s="83">
+        <v>1.8068190410004834</v>
+      </c>
+      <c r="M10" s="69">
         <f t="shared" si="1"/>
-        <v>0.68129027496226202</v>
-      </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="78">
-        <v>1.3086924358689199E-7</v>
-      </c>
-      <c r="C10" s="79">
-        <v>5.4597254056147403E-8</v>
-      </c>
-      <c r="D10" s="80">
-        <v>2.6054325687008101E-7</v>
-      </c>
-      <c r="E10" s="81">
-        <v>0.55345885631483804</v>
-      </c>
-      <c r="F10" s="82">
-        <v>0.23089713793434499</v>
-      </c>
-      <c r="G10" s="82">
-        <v>1.10186296654274</v>
-      </c>
-      <c r="H10" s="81">
+        <v>4.3309328515122063</v>
+      </c>
+      <c r="N10" s="69">
+        <f t="shared" si="3"/>
+        <v>0.30365715457145814</v>
+      </c>
+      <c r="O10" s="69">
+        <f t="shared" si="4"/>
+        <v>102.26435283190038</v>
+      </c>
+      <c r="P10" s="70">
         <f t="shared" si="2"/>
-        <v>1.8068190410004834</v>
-      </c>
-      <c r="I10" s="82">
+        <v>0.90755387045782088</v>
+      </c>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="65">
+        <v>1.5357687690296499E-7</v>
+      </c>
+      <c r="C11" s="66">
+        <v>7.0640914247487499E-8</v>
+      </c>
+      <c r="D11" s="66">
+        <v>5.1282300344550001E-9</v>
+      </c>
+      <c r="E11" s="66">
+        <v>2.1891292282651199E-7</v>
+      </c>
+      <c r="F11" s="67">
+        <v>3.27304139477236E-7</v>
+      </c>
+      <c r="G11" s="68">
+        <v>0.64949166295657701</v>
+      </c>
+      <c r="H11" s="69">
+        <v>0.29874734916222101</v>
+      </c>
+      <c r="I11" s="69">
+        <v>2.16877873822536E-2</v>
+      </c>
+      <c r="J11" s="69">
+        <v>0.92580420409975805</v>
+      </c>
+      <c r="K11" s="69">
+        <v>1.3842012816549001</v>
+      </c>
+      <c r="L11" s="68">
         <f t="shared" si="0"/>
-        <v>4.3309328515122063</v>
-      </c>
-      <c r="J10" s="83">
+        <v>1.5396656447410886</v>
+      </c>
+      <c r="M11" s="69">
         <f t="shared" si="1"/>
-        <v>0.90755387045782088</v>
-      </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="78">
-        <v>1.5357687690296499E-7</v>
-      </c>
-      <c r="C11" s="79">
-        <v>7.0640914247487499E-8</v>
-      </c>
-      <c r="D11" s="80">
-        <v>3.27304139477236E-7</v>
-      </c>
-      <c r="E11" s="81">
-        <v>0.64949166295657701</v>
-      </c>
-      <c r="F11" s="82">
-        <v>0.29874734916222101</v>
-      </c>
-      <c r="G11" s="82">
-        <v>1.3842012816549001</v>
-      </c>
-      <c r="H11" s="81">
+        <v>3.3473100357352323</v>
+      </c>
+      <c r="N11" s="69">
+        <f t="shared" si="3"/>
+        <v>1.0801419950046447</v>
+      </c>
+      <c r="O11" s="69">
+        <f t="shared" si="4"/>
+        <v>46.108899094901076</v>
+      </c>
+      <c r="P11" s="70">
         <f t="shared" si="2"/>
-        <v>1.5396656447410886</v>
-      </c>
-      <c r="I11" s="82">
+        <v>0.72243828499019802</v>
+      </c>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="65">
+        <v>6.8983168049580905E-8</v>
+      </c>
+      <c r="C12" s="66">
+        <v>1.76975937853769E-8</v>
+      </c>
+      <c r="D12" s="66">
+        <v>4.3058100470609498E-10</v>
+      </c>
+      <c r="E12" s="66">
+        <v>3.1423114548353098E-7</v>
+      </c>
+      <c r="F12" s="67">
+        <v>1.6970707422949101E-7</v>
+      </c>
+      <c r="G12" s="68">
+        <v>0.29173657803214598</v>
+      </c>
+      <c r="H12" s="69">
+        <v>7.4844858482549806E-2</v>
+      </c>
+      <c r="I12" s="69">
+        <v>1.8209692658405299E-3</v>
+      </c>
+      <c r="J12" s="69">
+        <v>1.32891430890211</v>
+      </c>
+      <c r="K12" s="69">
+        <v>0.71770784820979205</v>
+      </c>
+      <c r="L12" s="68">
         <f t="shared" si="0"/>
-        <v>3.3473100357352323</v>
-      </c>
-      <c r="J11" s="83">
+        <v>3.4277498102751163</v>
+      </c>
+      <c r="M12" s="69">
         <f t="shared" si="1"/>
-        <v>0.72243828499019802</v>
-      </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="78">
-        <v>6.8983168049580905E-8</v>
-      </c>
-      <c r="C12" s="79">
-        <v>1.76975937853769E-8</v>
-      </c>
-      <c r="D12" s="80">
-        <v>1.6970707422949101E-7</v>
-      </c>
-      <c r="E12" s="81">
-        <v>0.29173657803214598</v>
-      </c>
-      <c r="F12" s="82">
-        <v>7.4844858482549806E-2</v>
-      </c>
-      <c r="G12" s="82">
-        <v>0.71770784820979205</v>
-      </c>
-      <c r="H12" s="81">
+        <v>13.360971217991567</v>
+      </c>
+      <c r="N12" s="69">
+        <f t="shared" si="3"/>
+        <v>0.75249396691811943</v>
+      </c>
+      <c r="O12" s="69">
+        <f t="shared" si="4"/>
+        <v>549.15808781562066</v>
+      </c>
+      <c r="P12" s="70">
         <f t="shared" si="2"/>
-        <v>3.4277498102751163</v>
-      </c>
-      <c r="I12" s="82">
+        <v>1.3933245992702195</v>
+      </c>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="65">
+        <v>3.5823293194635201E-8</v>
+      </c>
+      <c r="C13" s="66">
+        <v>1.6794127453283401E-8</v>
+      </c>
+      <c r="D13" s="66">
+        <v>1.02863185538582E-8</v>
+      </c>
+      <c r="E13" s="66">
+        <v>9.2039441373640096E-8</v>
+      </c>
+      <c r="F13" s="67">
+        <v>7.4219005764427901E-8</v>
+      </c>
+      <c r="G13" s="68">
+        <v>0.15150021760284499</v>
+      </c>
+      <c r="H13" s="69">
+        <v>7.1024010824425901E-2</v>
+      </c>
+      <c r="I13" s="69">
+        <v>4.3501849223484899E-2</v>
+      </c>
+      <c r="J13" s="69">
+        <v>0.38924381743437803</v>
+      </c>
+      <c r="K13" s="69">
+        <v>0.31387944884032998</v>
+      </c>
+      <c r="L13" s="68">
         <f t="shared" si="0"/>
-        <v>13.360971217991567</v>
-      </c>
-      <c r="J12" s="83">
+        <v>6.6006505853442494</v>
+      </c>
+      <c r="M13" s="69">
         <f t="shared" si="1"/>
-        <v>1.3933245992702195</v>
-      </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="78">
-        <v>3.5823293194635201E-8</v>
-      </c>
-      <c r="C13" s="79">
-        <v>1.6794127453283401E-8</v>
-      </c>
-      <c r="D13" s="80">
-        <v>7.4219005764427901E-8</v>
-      </c>
-      <c r="E13" s="81">
-        <v>0.15150021760284499</v>
-      </c>
-      <c r="F13" s="82">
-        <v>7.1024010824425901E-2</v>
-      </c>
-      <c r="G13" s="82">
-        <v>0.31387944884032998</v>
-      </c>
-      <c r="H13" s="81">
+        <v>14.079745545095147</v>
+      </c>
+      <c r="N13" s="69">
+        <f t="shared" si="3"/>
+        <v>2.5690838369413238</v>
+      </c>
+      <c r="O13" s="69">
+        <f t="shared" si="4"/>
+        <v>22.987528526951451</v>
+      </c>
+      <c r="P13" s="70">
         <f t="shared" si="2"/>
-        <v>6.6006505853442494</v>
-      </c>
-      <c r="I13" s="82">
+        <v>3.1859365233838504</v>
+      </c>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="65">
+        <v>8.62945505677659E-7</v>
+      </c>
+      <c r="C14" s="66">
+        <v>2.14105636253202E-7</v>
+      </c>
+      <c r="D14" s="66">
+        <v>2.7455633245352401E-8</v>
+      </c>
+      <c r="E14" s="66">
+        <v>4.1898701500815598E-6</v>
+      </c>
+      <c r="F14" s="67">
+        <v>1.8478667328007201E-6</v>
+      </c>
+      <c r="G14" s="68">
+        <v>3.6494811121703798</v>
+      </c>
+      <c r="H14" s="69">
+        <v>0.90547371806714605</v>
+      </c>
+      <c r="I14" s="69">
+        <v>0.116112563646653</v>
+      </c>
+      <c r="J14" s="69">
+        <v>17.719371471969598</v>
+      </c>
+      <c r="K14" s="69">
+        <v>7.8148095039540699</v>
+      </c>
+      <c r="L14" s="68">
         <f t="shared" si="0"/>
-        <v>14.079745545095147</v>
-      </c>
-      <c r="J13" s="83">
+        <v>0.27401155651009546</v>
+      </c>
+      <c r="M14" s="69">
         <f t="shared" si="1"/>
-        <v>3.1859365233838504</v>
-      </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="78">
-        <v>8.62945505677659E-7</v>
-      </c>
-      <c r="C14" s="79">
-        <v>2.14105636253202E-7</v>
-      </c>
-      <c r="D14" s="80">
-        <v>1.8478667328007201E-6</v>
-      </c>
-      <c r="E14" s="81">
-        <v>3.6494811121703798</v>
-      </c>
-      <c r="F14" s="82">
-        <v>0.90547371806714605</v>
-      </c>
-      <c r="G14" s="82">
-        <v>7.8148095039540699</v>
-      </c>
-      <c r="H14" s="81">
+        <v>1.1043942856062492</v>
+      </c>
+      <c r="N14" s="69">
+        <f t="shared" si="3"/>
+        <v>5.6435410340705774E-2</v>
+      </c>
+      <c r="O14" s="69">
+        <f t="shared" si="4"/>
+        <v>8.6123324521809881</v>
+      </c>
+      <c r="P14" s="70">
         <f t="shared" si="2"/>
-        <v>0.27401155651009546</v>
-      </c>
-      <c r="I14" s="82">
+        <v>0.12796217226971798</v>
+      </c>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+    </row>
+    <row r="15" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="71">
+        <v>8.1161224199588901E-8</v>
+      </c>
+      <c r="C15" s="72">
+        <v>6.2334496647792699E-8</v>
+      </c>
+      <c r="D15" s="72">
+        <v>6.9008619639716901E-9</v>
+      </c>
+      <c r="E15" s="72">
+        <v>2.1473650678340601E-7</v>
+      </c>
+      <c r="F15" s="73">
+        <v>8.3152547401629197E-8</v>
+      </c>
+      <c r="G15" s="74">
+        <v>0.34323877094003302</v>
+      </c>
+      <c r="H15" s="75">
+        <v>0.26361869510418601</v>
+      </c>
+      <c r="I15" s="75">
+        <v>2.9184421530108699E-2</v>
+      </c>
+      <c r="J15" s="75">
+        <v>0.90814173136469201</v>
+      </c>
+      <c r="K15" s="75">
+        <v>0.35166027191113503</v>
+      </c>
+      <c r="L15" s="74">
         <f t="shared" si="0"/>
-        <v>1.1043942856062492</v>
-      </c>
-      <c r="J14" s="83">
+        <v>2.9134237873573707</v>
+      </c>
+      <c r="M15" s="75">
         <f t="shared" si="1"/>
-        <v>0.12796217226971798</v>
-      </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="84">
-        <v>8.1161224199588901E-8</v>
-      </c>
-      <c r="C15" s="85">
-        <v>6.2334496647792699E-8</v>
-      </c>
-      <c r="D15" s="86">
-        <v>8.3152547401629197E-8</v>
-      </c>
-      <c r="E15" s="87">
-        <v>0.34323877094003302</v>
-      </c>
-      <c r="F15" s="88">
-        <v>0.26361869510418601</v>
-      </c>
-      <c r="G15" s="88">
-        <v>0.35166027191113503</v>
-      </c>
-      <c r="H15" s="87">
+        <v>3.7933576736838988</v>
+      </c>
+      <c r="N15" s="75">
+        <f t="shared" si="3"/>
+        <v>1.1011497054510091</v>
+      </c>
+      <c r="O15" s="75">
+        <f t="shared" si="4"/>
+        <v>34.26485595982534</v>
+      </c>
+      <c r="P15" s="76">
         <f t="shared" si="2"/>
-        <v>2.9134237873573707</v>
-      </c>
-      <c r="I15" s="88">
-        <f t="shared" si="0"/>
-        <v>3.7933576736838988</v>
-      </c>
-      <c r="J15" s="89">
-        <f t="shared" si="1"/>
         <v>2.8436536051268857</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="63" t="s">
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="51" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K18" s="69"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K19" s="69"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="69"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K21" s="69"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K22" s="69"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K23" s="69"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K24" s="69"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K25" s="69"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K26" s="69"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K27" s="69"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K28" s="69"/>
+    </row>
+    <row r="29" spans="11:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4497,7 +4810,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4510,286 +4823,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="82">
         <v>1867</v>
       </c>
-      <c r="C4" s="96">
+      <c r="C4" s="83">
         <v>1875</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="85">
         <v>1825</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="86">
         <v>1849</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="82">
         <v>1759</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C6" s="83">
         <v>1767</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="82">
         <v>1279</v>
       </c>
-      <c r="C7" s="96">
+      <c r="C7" s="83">
         <v>1287</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="82">
         <v>1713</v>
       </c>
-      <c r="C8" s="96">
+      <c r="C8" s="83">
         <v>1750</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="85">
         <v>1723</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="86">
         <v>1756</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="87" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="82">
         <v>1927</v>
       </c>
-      <c r="C10" s="96">
+      <c r="C10" s="83">
         <v>1938</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="84" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="85">
         <v>1885</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="86">
         <v>1902</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="87" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="82">
         <v>173</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="83">
         <v>195</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="84" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="95">
+      <c r="B13" s="82">
         <v>386</v>
       </c>
-      <c r="C13" s="96">
+      <c r="C13" s="83">
         <v>399</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="88">
         <v>40474</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="82">
         <v>1629</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C14" s="83">
         <v>1658</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="84" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="82">
         <v>1767</v>
       </c>
-      <c r="C15" s="96">
+      <c r="C15" s="83">
         <v>1790</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="89">
         <v>-2852</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="90">
         <v>-2829</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="91" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4811,8 +5124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922555F0-DD60-4A30-94C9-BFE9FAE6D9F6}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4823,46 +5136,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
     </row>
     <row r="2" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="36" t="s">
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="122"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
@@ -5039,16 +5352,16 @@
       <c r="K6" s="22">
         <v>50</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="94">
         <v>1</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="95">
         <v>1</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="96">
         <v>0</v>
       </c>
-      <c r="O6" s="110">
+      <c r="O6" s="97">
         <v>0</v>
       </c>
     </row>
@@ -5518,619 +5831,619 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
     </row>
     <row r="2" spans="1:14" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="122"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="113" t="s">
+      <c r="H3" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="79" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="103">
         <v>117</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="104">
         <v>100</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="106">
         <v>100</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="104">
         <v>100</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J4" s="119">
+      <c r="J4" s="106">
         <v>100</v>
       </c>
-      <c r="K4" s="115" t="s">
+      <c r="K4" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="117">
+      <c r="L4" s="104">
         <v>99</v>
       </c>
-      <c r="M4" s="118" t="s">
+      <c r="M4" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="N4" s="119">
+      <c r="N4" s="106">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="103">
         <v>39</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="104">
         <v>100</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="126">
+      <c r="F5" s="113">
         <v>63</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="G5" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="104">
         <v>100</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="126">
+      <c r="J5" s="113">
         <v>41</v>
       </c>
-      <c r="K5" s="115" t="s">
+      <c r="K5" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="117">
+      <c r="L5" s="104">
         <v>100</v>
       </c>
-      <c r="M5" s="118" t="s">
+      <c r="M5" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="N5" s="126">
+      <c r="N5" s="113">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="103">
         <v>4</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="104">
         <v>100</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="126">
+      <c r="F6" s="113">
         <v>63</v>
       </c>
-      <c r="G6" s="115" t="s">
+      <c r="G6" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="125">
+      <c r="H6" s="112">
         <v>44</v>
       </c>
-      <c r="I6" s="118" t="s">
+      <c r="I6" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="126">
+      <c r="J6" s="113">
         <v>41</v>
       </c>
-      <c r="K6" s="115" t="s">
+      <c r="K6" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="125">
+      <c r="L6" s="112">
         <v>56</v>
       </c>
-      <c r="M6" s="118" t="s">
+      <c r="M6" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="N6" s="126">
+      <c r="N6" s="113">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="103">
         <v>40</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="104">
         <v>98</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="106">
         <v>91</v>
       </c>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="125">
+      <c r="H7" s="112">
         <v>63</v>
       </c>
-      <c r="I7" s="118" t="s">
+      <c r="I7" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J7" s="119">
+      <c r="J7" s="106">
         <v>93</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="L7" s="125">
+      <c r="L7" s="112">
         <v>37</v>
       </c>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="N7" s="126">
+      <c r="N7" s="113">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8" s="103">
         <v>116</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="104">
         <v>92</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="106">
         <v>95</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="117">
+      <c r="H8" s="104">
         <v>94</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J8" s="119">
+      <c r="J8" s="106">
         <v>96</v>
       </c>
-      <c r="K8" s="115" t="s">
+      <c r="K8" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="L8" s="125">
+      <c r="L8" s="112">
         <v>59</v>
       </c>
-      <c r="M8" s="118" t="s">
+      <c r="M8" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="N8" s="126">
+      <c r="N8" s="113">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="103">
         <v>54</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="104">
         <v>100</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="106">
         <v>95</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="104">
         <v>100</v>
       </c>
-      <c r="I9" s="118" t="s">
+      <c r="I9" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="106">
         <v>96</v>
       </c>
-      <c r="K9" s="115" t="s">
+      <c r="K9" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="125">
+      <c r="L9" s="112">
         <v>50</v>
       </c>
-      <c r="M9" s="118" t="s">
+      <c r="M9" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="N9" s="126">
+      <c r="N9" s="113">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="116">
+      <c r="B10" s="103">
         <v>11</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="125">
+      <c r="D10" s="112">
         <v>59</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="106">
         <v>96</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="104">
         <v>97</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="119">
+      <c r="J10" s="106">
         <v>92</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="L10" s="125">
+      <c r="L10" s="112">
         <v>68</v>
       </c>
-      <c r="M10" s="118" t="s">
+      <c r="M10" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="N10" s="126">
+      <c r="N10" s="113">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="116">
+      <c r="B11" s="103">
         <v>11</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="104">
         <v>100</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="119">
+      <c r="F11" s="106">
         <v>96</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="104">
         <v>95</v>
       </c>
-      <c r="I11" s="118" t="s">
+      <c r="I11" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="119">
+      <c r="J11" s="106">
         <v>92</v>
       </c>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="125">
+      <c r="L11" s="112">
         <v>32</v>
       </c>
-      <c r="M11" s="118" t="s">
+      <c r="M11" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="N11" s="126">
+      <c r="N11" s="113">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="116">
+      <c r="B12" s="103">
         <v>12</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="104">
         <v>97</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="119">
+      <c r="F12" s="106">
         <v>100</v>
       </c>
-      <c r="G12" s="115" t="s">
+      <c r="G12" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="125">
+      <c r="H12" s="112">
         <v>69</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J12" s="126">
+      <c r="J12" s="113">
         <v>57</v>
       </c>
-      <c r="K12" s="115" t="s">
+      <c r="K12" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="112">
         <v>71</v>
       </c>
-      <c r="M12" s="118" t="s">
+      <c r="M12" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="N12" s="126">
+      <c r="N12" s="113">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="116">
+      <c r="B13" s="103">
         <v>103</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="104">
         <v>100</v>
       </c>
-      <c r="E13" s="118" t="s">
+      <c r="E13" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="119">
+      <c r="F13" s="106">
         <v>100</v>
       </c>
-      <c r="G13" s="115" t="s">
+      <c r="G13" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="104">
         <v>92</v>
       </c>
-      <c r="I13" s="118" t="s">
+      <c r="I13" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="126">
+      <c r="J13" s="113">
         <v>64</v>
       </c>
-      <c r="K13" s="115" t="s">
+      <c r="K13" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="125">
+      <c r="L13" s="112">
         <v>76</v>
       </c>
-      <c r="M13" s="118" t="s">
+      <c r="M13" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="N13" s="126">
+      <c r="N13" s="113">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="116">
+      <c r="B14" s="103">
         <v>86</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="104">
         <v>94</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="126">
+      <c r="F14" s="113">
         <v>52</v>
       </c>
-      <c r="G14" s="115" t="s">
+      <c r="G14" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="125">
+      <c r="H14" s="112">
         <v>71</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="I14" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="126">
+      <c r="J14" s="113">
         <v>85</v>
       </c>
-      <c r="K14" s="115" t="s">
+      <c r="K14" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="L14" s="117">
+      <c r="L14" s="104">
         <v>99</v>
       </c>
-      <c r="M14" s="118" t="s">
+      <c r="M14" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="N14" s="126">
+      <c r="N14" s="113">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="120">
+      <c r="B15" s="107">
         <v>8</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="121">
+      <c r="D15" s="108">
         <v>99</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="123" t="s">
+      <c r="F15" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="108">
         <v>100</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="123" t="s">
+      <c r="J15" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="L15" s="127">
+      <c r="L15" s="114">
         <v>49</v>
       </c>
-      <c r="M15" s="122" t="s">
+      <c r="M15" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="123" t="s">
+      <c r="N15" s="110" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="111" t="s">
         <v>197</v>
       </c>
     </row>
